--- a/templates.xlsx
+++ b/templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smithm/GitHub/ARI-for-Reliability-Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57695492-80E5-4640-A254-D67DCCF8CCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220F57CA-305E-B445-9A86-E080B4A7E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="500" windowWidth="32180" windowHeight="20100" activeTab="2" xr2:uid="{94597F4E-FC60-4FA1-B7E2-C7C1A109AD66}"/>
   </bookViews>
@@ -673,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -756,7 +756,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -768,19 +771,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6971,10 +6970,10 @@
   <dimension ref="A1:X156"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7028,50 +7027,50 @@
       <c r="A6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41" t="s">
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41" t="s">
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="40" t="s">
+      <c r="G7" s="44"/>
+      <c r="H7" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="44" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="40" t="s">
+      <c r="K7" s="46"/>
+      <c r="L7" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="44" t="s">
+      <c r="M7" s="47"/>
+      <c r="N7" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="40" t="s">
+      <c r="O7" s="46"/>
+      <c r="P7" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="40"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -7130,7 +7129,7 @@
       <c r="A9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -11674,74 +11673,74 @@
       <c r="A82" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F82" s="41" t="s">
+      <c r="F82" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41" t="s">
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K82" s="41"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="41" t="s">
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
-      <c r="Q82" s="41"/>
-      <c r="S82" s="47" t="s">
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
+      <c r="Q82" s="42"/>
+      <c r="S82" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="T82" s="47"/>
-      <c r="U82" s="47"/>
-      <c r="V82" s="47"/>
-      <c r="W82" s="47"/>
-      <c r="X82" s="47"/>
+      <c r="T82" s="41"/>
+      <c r="U82" s="41"/>
+      <c r="V82" s="41"/>
+      <c r="W82" s="41"/>
+      <c r="X82" s="41"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="F83" s="42" t="s">
+      <c r="F83" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="G83" s="43"/>
+      <c r="G83" s="44"/>
       <c r="H83" s="45" t="s">
         <v>80</v>
       </c>
       <c r="I83" s="45"/>
-      <c r="J83" s="44" t="s">
+      <c r="J83" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="K83" s="44"/>
+      <c r="K83" s="46"/>
       <c r="L83" s="45" t="s">
         <v>80</v>
       </c>
       <c r="M83" s="45"/>
-      <c r="N83" s="44" t="s">
+      <c r="N83" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="O83" s="44"/>
+      <c r="O83" s="46"/>
       <c r="P83" s="45" t="s">
         <v>80</v>
       </c>
       <c r="Q83" s="45"/>
-      <c r="S83" s="46" t="s">
+      <c r="S83" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="T83" s="46" t="s">
+      <c r="T83" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="U83" s="46" t="s">
+      <c r="U83" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="V83" s="46" t="s">
+      <c r="V83" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="W83" s="46" t="s">
+      <c r="W83" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="X83" s="46" t="s">
+      <c r="X83" s="40" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11797,12 +11796,12 @@
       <c r="Q84" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S84" s="46"/>
-      <c r="T84" s="46"/>
-      <c r="U84" s="46"/>
-      <c r="V84" s="46"/>
-      <c r="W84" s="46"/>
-      <c r="X84" s="46"/>
+      <c r="S84" s="40"/>
+      <c r="T84" s="40"/>
+      <c r="U84" s="40"/>
+      <c r="V84" s="40"/>
+      <c r="W84" s="40"/>
+      <c r="X84" s="40"/>
     </row>
     <row r="85" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="str">
@@ -11814,12 +11813,12 @@
         <v>Galaxy</v>
       </c>
       <c r="C85" s="4" t="str">
-        <f t="shared" ref="C85:C116" si="4">IF(A9="","",IF(C9="Zone Redundant",C9,"Multi-AZ"))</f>
-        <v>Multi-AZ</v>
+        <f>IF(C9="","",IF(C9="Zone Redundant",C9,"Multi-AZ"))</f>
+        <v/>
       </c>
       <c r="D85" s="4" t="str">
         <f>IF(A85="","",_xlfn.CONCAT(A85,"-",IF(C85="Zone Redundant",C85,IF(C85="","Zonal - Single Zone Deployment","Zonal - Multi-AZ Deployment"))))</f>
-        <v>Azure Storage-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Storage-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E85" s="34">
         <f>IF($A85="","",VLOOKUP($D85,Master!$M$4:$V$109,10,FALSE))</f>
@@ -11835,11 +11834,11 @@
       </c>
       <c r="H85" s="15">
         <f>IF($A85="","",VLOOKUP($D85,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" s="15">
         <f>IF($A85="","",VLOOKUP($D85,Master!$M$4:$S$109,3,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J85" s="5">
         <f>IF(A85="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
@@ -11851,11 +11850,11 @@
       </c>
       <c r="L85" s="15">
         <f>IF($A85="","",VLOOKUP($D85,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M85" s="15">
         <f>IF($A85="","",VLOOKUP($D85,Master!$M$4:$S$109,5,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N85" s="5">
         <f>IF(A85="","",VLOOKUP($B$4,Master!$A$4:$G$8,6,FALSE))</f>
@@ -11874,28 +11873,28 @@
         <v>24</v>
       </c>
       <c r="S85" s="4" t="str">
-        <f t="shared" ref="S85:S116" si="5">IF(A9="","",IF(C9="Zone Redundant",C9,IF(C9="","Single Zone","Multi-AZ")))</f>
+        <f t="shared" ref="S85:S116" si="4">IF(A9="","",IF(C9="Zone Redundant",C9,IF(C9="","Single Zone","Multi-AZ")))</f>
         <v>Single Zone</v>
       </c>
-      <c r="T85" s="4" t="str">
+      <c r="T85" s="4">
         <f>IF($A85="","",VLOOKUP($D85,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
+        <v>0</v>
       </c>
       <c r="U85" s="27">
         <f>IF($A85="","",VLOOKUP($D85,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>6.8493150684931503E-3</v>
+        <v>0</v>
       </c>
       <c r="V85" s="4">
-        <f t="shared" ref="V85:V116" si="6">IF(A85="","",IF(S85="Single Zone",1,0))</f>
+        <f t="shared" ref="V85:V116" si="5">IF(A85="","",IF(S85="Single Zone",1,0))</f>
         <v>1</v>
       </c>
       <c r="W85" s="4">
-        <f t="shared" ref="W85:W116" si="7">IF(A85="","",IF(S85="Single Zone",730,0))</f>
+        <f t="shared" ref="W85:W116" si="6">IF(A85="","",IF(S85="Single Zone",730,0))</f>
         <v>730</v>
       </c>
       <c r="X85" s="27">
-        <f t="shared" ref="X85:X116" si="8">IF(A85="","",U85*V85*W85)</f>
-        <v>5</v>
+        <f t="shared" ref="X85:X116" si="7">IF(A85="","",U85*V85*W85)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -11908,12 +11907,12 @@
         <v>Lavender</v>
       </c>
       <c r="C86" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" ref="C86:C149" si="8">IF(C10="","",IF(C10="Zone Redundant",C10,"Multi-AZ"))</f>
+        <v/>
       </c>
       <c r="D86" s="4" t="str">
         <f t="shared" ref="D86:D153" si="9">IF(A86="","",_xlfn.CONCAT(A86,"-",IF(C86="Zone Redundant",C86,IF(C86="","Zonal - Single Zone Deployment","Zonal - Multi-AZ Deployment"))))</f>
-        <v>Azure Storage-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Storage-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E86" s="34">
         <f>IF($A86="","",VLOOKUP($D86,Master!$M$4:$V$109,10,FALSE))</f>
@@ -11929,11 +11928,11 @@
       </c>
       <c r="H86" s="15">
         <f>IF($A86="","",VLOOKUP($D86,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" s="15">
         <f>IF($A86="","",VLOOKUP($D86,Master!$M$4:$S$109,3,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J86" s="5">
         <f>IF(A86="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
@@ -11945,11 +11944,11 @@
       </c>
       <c r="L86" s="15">
         <f>IF($A86="","",VLOOKUP($D86,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M86" s="15">
         <f>IF($A86="","",VLOOKUP($D86,Master!$M$4:$S$109,5,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N86" s="5">
         <f>IF(A86="","",VLOOKUP($B$4,Master!$A$4:$G$8,6,FALSE))</f>
@@ -11968,28 +11967,28 @@
         <v>24</v>
       </c>
       <c r="S86" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T86" s="4" t="str">
+      <c r="T86" s="4">
         <f>IF($A86="","",VLOOKUP($D86,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
+        <v>0</v>
       </c>
       <c r="U86" s="27">
         <f>IF($A86="","",VLOOKUP($D86,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>6.8493150684931503E-3</v>
+        <v>0</v>
       </c>
       <c r="V86" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W86" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W86" s="4">
+        <v>730</v>
+      </c>
+      <c r="X86" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X86" s="27">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12002,12 +12001,12 @@
         <v>Sunshine</v>
       </c>
       <c r="C87" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D87" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Azure Storage-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Storage-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E87" s="34">
         <f>IF($A87="","",VLOOKUP($D87,Master!$M$4:$V$109,10,FALSE))</f>
@@ -12023,11 +12022,11 @@
       </c>
       <c r="H87" s="15">
         <f>IF($A87="","",VLOOKUP($D87,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" s="15">
         <f>IF($A87="","",VLOOKUP($D87,Master!$M$4:$S$109,3,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J87" s="5">
         <f>IF(A87="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
@@ -12039,11 +12038,11 @@
       </c>
       <c r="L87" s="15">
         <f>IF($A87="","",VLOOKUP($D87,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M87" s="15">
         <f>IF($A87="","",VLOOKUP($D87,Master!$M$4:$S$109,5,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N87" s="5">
         <f>IF(A87="","",VLOOKUP($B$4,Master!$A$4:$G$8,6,FALSE))</f>
@@ -12062,28 +12061,28 @@
         <v>24</v>
       </c>
       <c r="S87" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T87" s="4" t="str">
+      <c r="T87" s="4">
         <f>IF($A87="","",VLOOKUP($D87,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
+        <v>0</v>
       </c>
       <c r="U87" s="27">
         <f>IF($A87="","",VLOOKUP($D87,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>6.8493150684931503E-3</v>
+        <v>0</v>
       </c>
       <c r="V87" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W87" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W87" s="4">
+        <v>730</v>
+      </c>
+      <c r="X87" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X87" s="27">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12096,7 +12095,7 @@
         <v>Blossom</v>
       </c>
       <c r="C88" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D88" s="4" t="str">
@@ -12156,7 +12155,7 @@
         <v>24</v>
       </c>
       <c r="S88" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T88" s="4" t="str">
@@ -12168,15 +12167,15 @@
         <v>6.8493150684931503E-3</v>
       </c>
       <c r="V88" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W88" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W88" s="4">
+      <c r="X88" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X88" s="27">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12190,7 +12189,7 @@
         <v>Mystic</v>
       </c>
       <c r="C89" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D89" s="4" t="str">
@@ -12250,7 +12249,7 @@
         <v>24</v>
       </c>
       <c r="S89" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T89" s="4" t="str">
@@ -12262,15 +12261,15 @@
         <v>6.8493150684931503E-3</v>
       </c>
       <c r="V89" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W89" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W89" s="4">
+      <c r="X89" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X89" s="27">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12284,7 +12283,7 @@
         <v>Sapphire</v>
       </c>
       <c r="C90" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D90" s="4" t="str">
@@ -12344,7 +12343,7 @@
         <v>24</v>
       </c>
       <c r="S90" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T90" s="4" t="str">
@@ -12356,15 +12355,15 @@
         <v>6.8493150684931503E-3</v>
       </c>
       <c r="V90" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W90" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W90" s="4">
+      <c r="X90" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X90" s="27">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12378,12 +12377,12 @@
         <v>Twilight</v>
       </c>
       <c r="C91" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D91" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Azure Storage-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Storage-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E91" s="34">
         <f>IF($A91="","",VLOOKUP($D91,Master!$M$4:$V$109,10,FALSE))</f>
@@ -12399,11 +12398,11 @@
       </c>
       <c r="H91" s="15">
         <f>IF($A91="","",VLOOKUP($D91,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" s="15">
         <f>IF($A91="","",VLOOKUP($D91,Master!$M$4:$S$109,3,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J91" s="5">
         <f>IF(A91="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
@@ -12415,11 +12414,11 @@
       </c>
       <c r="L91" s="15">
         <f>IF($A91="","",VLOOKUP($D91,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M91" s="15">
         <f>IF($A91="","",VLOOKUP($D91,Master!$M$4:$S$109,5,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N91" s="5">
         <f>IF(A91="","",VLOOKUP($B$4,Master!$A$4:$G$8,6,FALSE))</f>
@@ -12438,28 +12437,28 @@
         <v>24</v>
       </c>
       <c r="S91" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T91" s="4" t="str">
+      <c r="T91" s="4">
         <f>IF($A91="","",VLOOKUP($D91,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
+        <v>0</v>
       </c>
       <c r="U91" s="27">
         <f>IF($A91="","",VLOOKUP($D91,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>6.8493150684931503E-3</v>
+        <v>0</v>
       </c>
       <c r="V91" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W91" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W91" s="4">
+        <v>730</v>
+      </c>
+      <c r="X91" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X91" s="27">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12472,12 +12471,12 @@
         <v>Dazzle</v>
       </c>
       <c r="C92" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D92" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Azure Storage-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Storage-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E92" s="34">
         <f>IF($A92="","",VLOOKUP($D92,Master!$M$4:$V$109,10,FALSE))</f>
@@ -12493,11 +12492,11 @@
       </c>
       <c r="H92" s="15">
         <f>IF($A92="","",VLOOKUP($D92,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" s="15">
         <f>IF($A92="","",VLOOKUP($D92,Master!$M$4:$S$109,3,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J92" s="5">
         <f>IF(A92="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
@@ -12509,11 +12508,11 @@
       </c>
       <c r="L92" s="15">
         <f>IF($A92="","",VLOOKUP($D92,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M92" s="15">
         <f>IF($A92="","",VLOOKUP($D92,Master!$M$4:$S$109,5,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N92" s="5">
         <f>IF(A92="","",VLOOKUP($B$4,Master!$A$4:$G$8,6,FALSE))</f>
@@ -12532,28 +12531,28 @@
         <v>24</v>
       </c>
       <c r="S92" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T92" s="4" t="str">
+      <c r="T92" s="4">
         <f>IF($A92="","",VLOOKUP($D92,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
+        <v>0</v>
       </c>
       <c r="U92" s="27">
         <f>IF($A92="","",VLOOKUP($D92,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>6.8493150684931503E-3</v>
+        <v>0</v>
       </c>
       <c r="V92" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W92" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W92" s="4">
+        <v>730</v>
+      </c>
+      <c r="X92" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X92" s="27">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12566,12 +12565,12 @@
         <v>Harmony</v>
       </c>
       <c r="C93" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D93" s="4" t="str">
         <f t="shared" ref="D93:D122" si="10">IF(A93="","",_xlfn.CONCAT(A93,"-",IF(C93="Zone Redundant",C93,IF(C93="","Zonal - Single Zone Deployment","Zonal - Multi-AZ Deployment"))))</f>
-        <v>Azure Storage-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Storage-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E93" s="34">
         <f>IF($A93="","",VLOOKUP($D93,Master!$M$4:$V$109,10,FALSE))</f>
@@ -12587,11 +12586,11 @@
       </c>
       <c r="H93" s="15">
         <f>IF($A93="","",VLOOKUP($D93,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" s="15">
         <f>IF($A93="","",VLOOKUP($D93,Master!$M$4:$S$109,3,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J93" s="5">
         <f>IF(A93="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
@@ -12603,11 +12602,11 @@
       </c>
       <c r="L93" s="15">
         <f>IF($A93="","",VLOOKUP($D93,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M93" s="15">
         <f>IF($A93="","",VLOOKUP($D93,Master!$M$4:$S$109,5,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N93" s="5">
         <f>IF(A93="","",VLOOKUP($B$4,Master!$A$4:$G$8,6,FALSE))</f>
@@ -12626,28 +12625,28 @@
         <v>24</v>
       </c>
       <c r="S93" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T93" s="4" t="str">
+      <c r="T93" s="4">
         <f>IF($A93="","",VLOOKUP($D93,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
+        <v>0</v>
       </c>
       <c r="U93" s="27">
         <f>IF($A93="","",VLOOKUP($D93,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>6.8493150684931503E-3</v>
+        <v>0</v>
       </c>
       <c r="V93" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W93" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W93" s="4">
+        <v>730</v>
+      </c>
+      <c r="X93" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X93" s="27">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12660,12 +12659,12 @@
         <v>Oceanic</v>
       </c>
       <c r="C94" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D94" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Azure Storage-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Storage-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E94" s="34">
         <f>IF($A94="","",VLOOKUP($D94,Master!$M$4:$V$109,10,FALSE))</f>
@@ -12681,11 +12680,11 @@
       </c>
       <c r="H94" s="15">
         <f>IF($A94="","",VLOOKUP($D94,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" s="15">
         <f>IF($A94="","",VLOOKUP($D94,Master!$M$4:$S$109,3,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J94" s="5">
         <f>IF(A94="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
@@ -12697,11 +12696,11 @@
       </c>
       <c r="L94" s="15">
         <f>IF($A94="","",VLOOKUP($D94,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M94" s="15">
         <f>IF($A94="","",VLOOKUP($D94,Master!$M$4:$S$109,5,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N94" s="5">
         <f>IF(A94="","",VLOOKUP($B$4,Master!$A$4:$G$8,6,FALSE))</f>
@@ -12720,28 +12719,28 @@
         <v>24</v>
       </c>
       <c r="S94" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T94" s="4" t="str">
+      <c r="T94" s="4">
         <f>IF($A94="","",VLOOKUP($D94,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
+        <v>0</v>
       </c>
       <c r="U94" s="27">
         <f>IF($A94="","",VLOOKUP($D94,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>6.8493150684931503E-3</v>
+        <v>0</v>
       </c>
       <c r="V94" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W94" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W94" s="4">
+        <v>730</v>
+      </c>
+      <c r="X94" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X94" s="27">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12754,7 +12753,7 @@
         <v>Majestic</v>
       </c>
       <c r="C95" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D95" s="4" t="str">
@@ -12814,7 +12813,7 @@
         <v>24</v>
       </c>
       <c r="S95" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T95" s="4" t="str">
@@ -12826,15 +12825,15 @@
         <v>6.8493150684931503E-3</v>
       </c>
       <c r="V95" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W95" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W95" s="4">
+      <c r="X95" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X95" s="27">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12848,12 +12847,12 @@
         <v>Enchanted</v>
       </c>
       <c r="C96" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D96" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Azure Storage-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Storage-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E96" s="34">
         <f>IF($A96="","",VLOOKUP($D96,Master!$M$4:$V$109,10,FALSE))</f>
@@ -12869,11 +12868,11 @@
       </c>
       <c r="H96" s="15">
         <f>IF($A96="","",VLOOKUP($D96,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" s="15">
         <f>IF($A96="","",VLOOKUP($D96,Master!$M$4:$S$109,3,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J96" s="5">
         <f>IF(A96="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
@@ -12885,11 +12884,11 @@
       </c>
       <c r="L96" s="15">
         <f>IF($A96="","",VLOOKUP($D96,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M96" s="15">
         <f>IF($A96="","",VLOOKUP($D96,Master!$M$4:$S$109,5,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N96" s="5">
         <f>IF(A96="","",VLOOKUP($B$4,Master!$A$4:$G$8,6,FALSE))</f>
@@ -12908,28 +12907,28 @@
         <v>24</v>
       </c>
       <c r="S96" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T96" s="4" t="str">
+      <c r="T96" s="4">
         <f>IF($A96="","",VLOOKUP($D96,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
+        <v>0</v>
       </c>
       <c r="U96" s="27">
         <f>IF($A96="","",VLOOKUP($D96,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>6.8493150684931503E-3</v>
+        <v>0</v>
       </c>
       <c r="V96" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W96" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W96" s="4">
+        <v>730</v>
+      </c>
+      <c r="X96" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X96" s="27">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12942,12 +12941,12 @@
         <v>Horizon</v>
       </c>
       <c r="C97" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D97" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Azure Storage-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Storage-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E97" s="34">
         <f>IF($A97="","",VLOOKUP($D97,Master!$M$4:$V$109,10,FALSE))</f>
@@ -12963,11 +12962,11 @@
       </c>
       <c r="H97" s="15">
         <f>IF($A97="","",VLOOKUP($D97,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" s="15">
         <f>IF($A97="","",VLOOKUP($D97,Master!$M$4:$S$109,3,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J97" s="5">
         <f>IF(A97="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
@@ -12979,11 +12978,11 @@
       </c>
       <c r="L97" s="15">
         <f>IF($A97="","",VLOOKUP($D97,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M97" s="15">
         <f>IF($A97="","",VLOOKUP($D97,Master!$M$4:$S$109,5,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N97" s="5">
         <f>IF(A97="","",VLOOKUP($B$4,Master!$A$4:$G$8,6,FALSE))</f>
@@ -13002,28 +13001,28 @@
         <v>24</v>
       </c>
       <c r="S97" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T97" s="4" t="str">
+      <c r="T97" s="4">
         <f>IF($A97="","",VLOOKUP($D97,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
+        <v>0</v>
       </c>
       <c r="U97" s="27">
         <f>IF($A97="","",VLOOKUP($D97,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>6.8493150684931503E-3</v>
+        <v>0</v>
       </c>
       <c r="V97" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W97" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W97" s="4">
+        <v>730</v>
+      </c>
+      <c r="X97" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X97" s="27">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13036,12 +13035,12 @@
         <v>Radiant</v>
       </c>
       <c r="C98" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D98" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Azure Storage-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Storage-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E98" s="34">
         <f>IF($A98="","",VLOOKUP($D98,Master!$M$4:$V$109,10,FALSE))</f>
@@ -13057,11 +13056,11 @@
       </c>
       <c r="H98" s="15">
         <f>IF($A98="","",VLOOKUP($D98,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" s="15">
         <f>IF($A98="","",VLOOKUP($D98,Master!$M$4:$S$109,3,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J98" s="5">
         <f>IF(A98="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
@@ -13073,11 +13072,11 @@
       </c>
       <c r="L98" s="15">
         <f>IF($A98="","",VLOOKUP($D98,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M98" s="15">
         <f>IF($A98="","",VLOOKUP($D98,Master!$M$4:$S$109,5,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N98" s="5">
         <f>IF(A98="","",VLOOKUP($B$4,Master!$A$4:$G$8,6,FALSE))</f>
@@ -13096,28 +13095,28 @@
         <v>24</v>
       </c>
       <c r="S98" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T98" s="4" t="str">
+      <c r="T98" s="4">
         <f>IF($A98="","",VLOOKUP($D98,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
+        <v>0</v>
       </c>
       <c r="U98" s="27">
         <f>IF($A98="","",VLOOKUP($D98,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>6.8493150684931503E-3</v>
+        <v>0</v>
       </c>
       <c r="V98" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W98" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W98" s="4">
+        <v>730</v>
+      </c>
+      <c r="X98" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X98" s="27">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13130,12 +13129,12 @@
         <v>Celestial</v>
       </c>
       <c r="C99" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D99" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Azure Storage-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Storage-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E99" s="34">
         <f>IF($A99="","",VLOOKUP($D99,Master!$M$4:$V$109,10,FALSE))</f>
@@ -13151,11 +13150,11 @@
       </c>
       <c r="H99" s="15">
         <f>IF($A99="","",VLOOKUP($D99,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" s="15">
         <f>IF($A99="","",VLOOKUP($D99,Master!$M$4:$S$109,3,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J99" s="5">
         <f>IF(A99="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
@@ -13167,11 +13166,11 @@
       </c>
       <c r="L99" s="15">
         <f>IF($A99="","",VLOOKUP($D99,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M99" s="15">
         <f>IF($A99="","",VLOOKUP($D99,Master!$M$4:$S$109,5,FALSE))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N99" s="5">
         <f>IF(A99="","",VLOOKUP($B$4,Master!$A$4:$G$8,6,FALSE))</f>
@@ -13190,28 +13189,28 @@
         <v>24</v>
       </c>
       <c r="S99" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T99" s="4" t="str">
+      <c r="T99" s="4">
         <f>IF($A99="","",VLOOKUP($D99,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
+        <v>0</v>
       </c>
       <c r="U99" s="27">
         <f>IF($A99="","",VLOOKUP($D99,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>6.8493150684931503E-3</v>
+        <v>0</v>
       </c>
       <c r="V99" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W99" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W99" s="4">
+        <v>730</v>
+      </c>
+      <c r="X99" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X99" s="27">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13224,7 +13223,7 @@
         <v>Paradise</v>
       </c>
       <c r="C100" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D100" s="4" t="str">
@@ -13284,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="S100" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T100" s="4" t="str">
@@ -13296,15 +13295,15 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="V100" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W100" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W100" s="4">
+      <c r="X100" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X100" s="27">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13318,12 +13317,12 @@
         <v>Serenity</v>
       </c>
       <c r="C101" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D101" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Azure Public IPs-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Public IPs-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E101" s="34">
         <f>IF($A101="","",VLOOKUP($D101,Master!$M$4:$V$109,10,FALSE))</f>
@@ -13339,7 +13338,7 @@
       </c>
       <c r="H101" s="15">
         <f>IF($A101="","",VLOOKUP($D101,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" s="15">
         <f>IF($A101="","",VLOOKUP($D101,Master!$M$4:$S$109,3,FALSE))</f>
@@ -13355,7 +13354,7 @@
       </c>
       <c r="L101" s="15">
         <f>IF($A101="","",VLOOKUP($D101,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M101" s="15">
         <f>IF($A101="","",VLOOKUP($D101,Master!$M$4:$S$109,5,FALSE))</f>
@@ -13378,28 +13377,28 @@
         <v>0</v>
       </c>
       <c r="S101" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T101" s="4" t="str">
+      <c r="T101" s="4">
         <f>IF($A101="","",VLOOKUP($D101,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure IP, Public Address, Standard (ARM)</v>
+        <v>0</v>
       </c>
       <c r="U101" s="27">
         <f>IF($A101="","",VLOOKUP($D101,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="V101" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W101" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W101" s="4">
+        <v>730</v>
+      </c>
+      <c r="X101" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X101" s="27">
-        <f t="shared" si="8"/>
-        <v>4.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13412,12 +13411,12 @@
         <v>Euphoria</v>
       </c>
       <c r="C102" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D102" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Azure Public IPs-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Public IPs-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E102" s="34">
         <f>IF($A102="","",VLOOKUP($D102,Master!$M$4:$V$109,10,FALSE))</f>
@@ -13433,7 +13432,7 @@
       </c>
       <c r="H102" s="15">
         <f>IF($A102="","",VLOOKUP($D102,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" s="15">
         <f>IF($A102="","",VLOOKUP($D102,Master!$M$4:$S$109,3,FALSE))</f>
@@ -13449,7 +13448,7 @@
       </c>
       <c r="L102" s="15">
         <f>IF($A102="","",VLOOKUP($D102,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M102" s="15">
         <f>IF($A102="","",VLOOKUP($D102,Master!$M$4:$S$109,5,FALSE))</f>
@@ -13472,28 +13471,28 @@
         <v>0</v>
       </c>
       <c r="S102" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T102" s="4" t="str">
+      <c r="T102" s="4">
         <f>IF($A102="","",VLOOKUP($D102,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure IP, Public Address, Standard (ARM)</v>
+        <v>0</v>
       </c>
       <c r="U102" s="27">
         <f>IF($A102="","",VLOOKUP($D102,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="V102" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W102" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W102" s="4">
+        <v>730</v>
+      </c>
+      <c r="X102" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X102" s="27">
-        <f t="shared" si="8"/>
-        <v>4.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13506,12 +13505,12 @@
         <v>Serenade</v>
       </c>
       <c r="C103" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D103" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Azure Public IPs-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Public IPs-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E103" s="34">
         <f>IF($A103="","",VLOOKUP($D103,Master!$M$4:$V$109,10,FALSE))</f>
@@ -13527,7 +13526,7 @@
       </c>
       <c r="H103" s="15">
         <f>IF($A103="","",VLOOKUP($D103,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" s="15">
         <f>IF($A103="","",VLOOKUP($D103,Master!$M$4:$S$109,3,FALSE))</f>
@@ -13543,7 +13542,7 @@
       </c>
       <c r="L103" s="15">
         <f>IF($A103="","",VLOOKUP($D103,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M103" s="15">
         <f>IF($A103="","",VLOOKUP($D103,Master!$M$4:$S$109,5,FALSE))</f>
@@ -13566,28 +13565,28 @@
         <v>0</v>
       </c>
       <c r="S103" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T103" s="4" t="str">
+      <c r="T103" s="4">
         <f>IF($A103="","",VLOOKUP($D103,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure IP, Public Address, Standard (ARM)</v>
+        <v>0</v>
       </c>
       <c r="U103" s="27">
         <f>IF($A103="","",VLOOKUP($D103,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="V103" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W103" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W103" s="4">
+        <v>730</v>
+      </c>
+      <c r="X103" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X103" s="27">
-        <f t="shared" si="8"/>
-        <v>4.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13600,12 +13599,12 @@
         <v>Aurora</v>
       </c>
       <c r="C104" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D104" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Azure Public IPs-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Public IPs-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E104" s="34">
         <f>IF($A104="","",VLOOKUP($D104,Master!$M$4:$V$109,10,FALSE))</f>
@@ -13621,7 +13620,7 @@
       </c>
       <c r="H104" s="15">
         <f>IF($A104="","",VLOOKUP($D104,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" s="15">
         <f>IF($A104="","",VLOOKUP($D104,Master!$M$4:$S$109,3,FALSE))</f>
@@ -13637,7 +13636,7 @@
       </c>
       <c r="L104" s="15">
         <f>IF($A104="","",VLOOKUP($D104,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M104" s="15">
         <f>IF($A104="","",VLOOKUP($D104,Master!$M$4:$S$109,5,FALSE))</f>
@@ -13660,28 +13659,28 @@
         <v>0</v>
       </c>
       <c r="S104" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T104" s="4" t="str">
+      <c r="T104" s="4">
         <f>IF($A104="","",VLOOKUP($D104,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure IP, Public Address, Standard (ARM)</v>
+        <v>0</v>
       </c>
       <c r="U104" s="27">
         <f>IF($A104="","",VLOOKUP($D104,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="V104" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W104" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W104" s="4">
+        <v>730</v>
+      </c>
+      <c r="X104" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X104" s="27">
-        <f t="shared" si="8"/>
-        <v>4.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13694,7 +13693,7 @@
         <v>Cascade</v>
       </c>
       <c r="C105" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D105" s="4" t="str">
@@ -13754,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="S105" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T105" s="4" t="str">
@@ -13766,15 +13765,15 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="V105" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W105" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W105" s="4">
+      <c r="X105" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X105" s="27">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13788,7 +13787,7 @@
         <v>Oasis</v>
       </c>
       <c r="C106" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D106" s="4" t="str">
@@ -13848,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="S106" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T106" s="4" t="str">
@@ -13860,15 +13859,15 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="V106" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W106" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W106" s="4">
+      <c r="X106" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X106" s="27">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13882,16 +13881,16 @@
         <v>Mirage</v>
       </c>
       <c r="C107" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D107" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Azure Virtual Machines-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Virtual Machines-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E107" s="34">
         <f>IF($A107="","",VLOOKUP($D107,Master!$M$4:$V$109,10,FALSE))</f>
-        <v>0.99990000000000001</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="F107" s="5">
         <f>IF(A107="","",VLOOKUP($B$4,Master!$A$4:$G$8,2,FALSE))</f>
@@ -13903,7 +13902,7 @@
       </c>
       <c r="H107" s="15">
         <f>IF($A107="","",VLOOKUP($D107,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" s="15">
         <f>IF($A107="","",VLOOKUP($D107,Master!$M$4:$S$109,3,FALSE))</f>
@@ -13919,7 +13918,7 @@
       </c>
       <c r="L107" s="15">
         <f>IF($A107="","",VLOOKUP($D107,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" s="15">
         <f>IF($A107="","",VLOOKUP($D107,Master!$M$4:$S$109,5,FALSE))</f>
@@ -13935,35 +13934,35 @@
       </c>
       <c r="P107" s="15">
         <f>IF($A107="","",VLOOKUP($D107,Master!$M$4:$S$109,6,FALSE))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="15">
         <f>IF($A107="","",VLOOKUP($D107,Master!$M$4:$S$109,7,FALSE))</f>
         <v>0</v>
       </c>
       <c r="S107" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T107" s="4" t="str">
+      <c r="T107" s="4">
         <f>IF($A107="","",VLOOKUP($D107,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure VM D4v3 (4 cores, Linux)</v>
+        <v>0</v>
       </c>
       <c r="U107" s="27">
         <f>IF($A107="","",VLOOKUP($D107,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="V107" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W107" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W107" s="4">
+        <v>730</v>
+      </c>
+      <c r="X107" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X107" s="27">
-        <f t="shared" si="8"/>
-        <v>182.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13976,16 +13975,16 @@
         <v>Meadow</v>
       </c>
       <c r="C108" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D108" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Azure Virtual Machines-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Virtual Machines-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E108" s="34">
         <f>IF($A108="","",VLOOKUP($D108,Master!$M$4:$V$109,10,FALSE))</f>
-        <v>0.99990000000000001</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="F108" s="5">
         <f>IF(A108="","",VLOOKUP($B$4,Master!$A$4:$G$8,2,FALSE))</f>
@@ -13997,7 +13996,7 @@
       </c>
       <c r="H108" s="15">
         <f>IF($A108="","",VLOOKUP($D108,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" s="15">
         <f>IF($A108="","",VLOOKUP($D108,Master!$M$4:$S$109,3,FALSE))</f>
@@ -14013,7 +14012,7 @@
       </c>
       <c r="L108" s="15">
         <f>IF($A108="","",VLOOKUP($D108,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" s="15">
         <f>IF($A108="","",VLOOKUP($D108,Master!$M$4:$S$109,5,FALSE))</f>
@@ -14029,35 +14028,35 @@
       </c>
       <c r="P108" s="15">
         <f>IF($A108="","",VLOOKUP($D108,Master!$M$4:$S$109,6,FALSE))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q108" s="15">
         <f>IF($A108="","",VLOOKUP($D108,Master!$M$4:$S$109,7,FALSE))</f>
         <v>0</v>
       </c>
       <c r="S108" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T108" s="4" t="str">
+      <c r="T108" s="4">
         <f>IF($A108="","",VLOOKUP($D108,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure VM D4v3 (4 cores, Linux)</v>
+        <v>0</v>
       </c>
       <c r="U108" s="27">
         <f>IF($A108="","",VLOOKUP($D108,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="V108" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W108" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W108" s="4">
+        <v>730</v>
+      </c>
+      <c r="X108" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X108" s="27">
-        <f t="shared" si="8"/>
-        <v>182.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -14070,16 +14069,16 @@
         <v>Jubilee</v>
       </c>
       <c r="C109" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D109" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Azure Virtual Machines-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Virtual Machines-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E109" s="34">
         <f>IF($A109="","",VLOOKUP($D109,Master!$M$4:$V$109,10,FALSE))</f>
-        <v>0.99990000000000001</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="F109" s="5">
         <f>IF(A109="","",VLOOKUP($B$4,Master!$A$4:$G$8,2,FALSE))</f>
@@ -14091,7 +14090,7 @@
       </c>
       <c r="H109" s="15">
         <f>IF($A109="","",VLOOKUP($D109,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" s="15">
         <f>IF($A109="","",VLOOKUP($D109,Master!$M$4:$S$109,3,FALSE))</f>
@@ -14107,7 +14106,7 @@
       </c>
       <c r="L109" s="15">
         <f>IF($A109="","",VLOOKUP($D109,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" s="15">
         <f>IF($A109="","",VLOOKUP($D109,Master!$M$4:$S$109,5,FALSE))</f>
@@ -14123,35 +14122,35 @@
       </c>
       <c r="P109" s="15">
         <f>IF($A109="","",VLOOKUP($D109,Master!$M$4:$S$109,6,FALSE))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q109" s="15">
         <f>IF($A109="","",VLOOKUP($D109,Master!$M$4:$S$109,7,FALSE))</f>
         <v>0</v>
       </c>
       <c r="S109" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T109" s="4" t="str">
+      <c r="T109" s="4">
         <f>IF($A109="","",VLOOKUP($D109,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure VM D4v3 (4 cores, Linux)</v>
+        <v>0</v>
       </c>
       <c r="U109" s="27">
         <f>IF($A109="","",VLOOKUP($D109,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="V109" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W109" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W109" s="4">
+        <v>730</v>
+      </c>
+      <c r="X109" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X109" s="27">
-        <f t="shared" si="8"/>
-        <v>182.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -14164,16 +14163,16 @@
         <v>Symphony</v>
       </c>
       <c r="C110" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D110" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Azure Virtual Machines-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Virtual Machines-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E110" s="34">
         <f>IF($A110="","",VLOOKUP($D110,Master!$M$4:$V$109,10,FALSE))</f>
-        <v>0.99990000000000001</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="F110" s="5">
         <f>IF(A110="","",VLOOKUP($B$4,Master!$A$4:$G$8,2,FALSE))</f>
@@ -14185,7 +14184,7 @@
       </c>
       <c r="H110" s="15">
         <f>IF($A110="","",VLOOKUP($D110,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" s="15">
         <f>IF($A110="","",VLOOKUP($D110,Master!$M$4:$S$109,3,FALSE))</f>
@@ -14201,7 +14200,7 @@
       </c>
       <c r="L110" s="15">
         <f>IF($A110="","",VLOOKUP($D110,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" s="15">
         <f>IF($A110="","",VLOOKUP($D110,Master!$M$4:$S$109,5,FALSE))</f>
@@ -14217,35 +14216,35 @@
       </c>
       <c r="P110" s="15">
         <f>IF($A110="","",VLOOKUP($D110,Master!$M$4:$S$109,6,FALSE))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q110" s="15">
         <f>IF($A110="","",VLOOKUP($D110,Master!$M$4:$S$109,7,FALSE))</f>
         <v>0</v>
       </c>
       <c r="S110" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T110" s="4" t="str">
+      <c r="T110" s="4">
         <f>IF($A110="","",VLOOKUP($D110,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure VM D4v3 (4 cores, Linux)</v>
+        <v>0</v>
       </c>
       <c r="U110" s="27">
         <f>IF($A110="","",VLOOKUP($D110,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="V110" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W110" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W110" s="4">
+        <v>730</v>
+      </c>
+      <c r="X110" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X110" s="27">
-        <f t="shared" si="8"/>
-        <v>182.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -14258,16 +14257,16 @@
         <v>Radiance</v>
       </c>
       <c r="C111" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D111" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Azure Virtual Machines-Zonal - Multi-AZ Deployment</v>
+        <v>Azure Virtual Machines-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E111" s="34">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$V$109,10,FALSE))</f>
-        <v>0.99990000000000001</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="F111" s="5">
         <f>IF(A111="","",VLOOKUP($B$4,Master!$A$4:$G$8,2,FALSE))</f>
@@ -14279,7 +14278,7 @@
       </c>
       <c r="H111" s="15">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" s="15">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$S$109,3,FALSE))</f>
@@ -14295,7 +14294,7 @@
       </c>
       <c r="L111" s="15">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" s="15">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$S$109,5,FALSE))</f>
@@ -14311,35 +14310,35 @@
       </c>
       <c r="P111" s="15">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$S$109,6,FALSE))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q111" s="15">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$S$109,7,FALSE))</f>
         <v>0</v>
       </c>
       <c r="S111" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T111" s="4" t="str">
+      <c r="T111" s="4">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure VM D4v3 (4 cores, Linux)</v>
+        <v>0</v>
       </c>
       <c r="U111" s="27">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="V111" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W111" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W111" s="4">
+        <v>730</v>
+      </c>
+      <c r="X111" s="27">
         <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="X111" s="27">
-        <f t="shared" si="8"/>
-        <v>182.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -14352,7 +14351,7 @@
         <v>Oasis</v>
       </c>
       <c r="C112" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D112" s="4" t="str">
@@ -14412,7 +14411,7 @@
         <v>0</v>
       </c>
       <c r="S112" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T112" s="4" t="str">
@@ -14424,15 +14423,15 @@
         <v>0.25</v>
       </c>
       <c r="V112" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W112" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W112" s="4">
+      <c r="X112" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X112" s="27">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14446,7 +14445,7 @@
         <v>Sunshine</v>
       </c>
       <c r="C113" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D113" s="4" t="str">
@@ -14506,7 +14505,7 @@
         <v>0</v>
       </c>
       <c r="S113" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T113" s="4" t="str">
@@ -14518,15 +14517,15 @@
         <v>0.25</v>
       </c>
       <c r="V113" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W113" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W113" s="4">
+      <c r="X113" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X113" s="27">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14540,7 +14539,7 @@
         <v>Glimmer</v>
       </c>
       <c r="C114" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D114" s="4" t="str">
@@ -14600,7 +14599,7 @@
         <v>0</v>
       </c>
       <c r="S114" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T114" s="4" t="str">
@@ -14612,15 +14611,15 @@
         <v>0.25</v>
       </c>
       <c r="V114" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W114" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W114" s="4">
+      <c r="X114" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X114" s="27">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14634,7 +14633,7 @@
         <v>Rainforest</v>
       </c>
       <c r="C115" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D115" s="4" t="str">
@@ -14694,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="S115" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T115" s="4" t="str">
@@ -14706,15 +14705,15 @@
         <v>0.25</v>
       </c>
       <c r="V115" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W115" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W115" s="4">
+      <c r="X115" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X115" s="27">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14728,7 +14727,7 @@
         <v>Infinity</v>
       </c>
       <c r="C116" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D116" s="4" t="str">
@@ -14788,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="S116" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T116" s="4" t="str">
@@ -14800,15 +14799,15 @@
         <v>0.25</v>
       </c>
       <c r="V116" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W116" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W116" s="4">
+      <c r="X116" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X116" s="27">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14822,7 +14821,7 @@
         <v>Sunrise</v>
       </c>
       <c r="C117" s="4" t="str">
-        <f t="shared" ref="C117:C148" si="12">IF(A41="","",IF(C41="Zone Redundant",C41,"Multi-AZ"))</f>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D117" s="4" t="str">
@@ -14882,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="S117" s="4" t="str">
-        <f t="shared" ref="S117:S148" si="13">IF(A41="","",IF(C41="Zone Redundant",C41,IF(C41="","Single Zone","Multi-AZ")))</f>
+        <f t="shared" ref="S117:S148" si="12">IF(A41="","",IF(C41="Zone Redundant",C41,IF(C41="","Single Zone","Multi-AZ")))</f>
         <v>Multi-AZ</v>
       </c>
       <c r="T117" s="4" t="str">
@@ -14894,15 +14893,15 @@
         <v>0.25</v>
       </c>
       <c r="V117" s="4">
-        <f t="shared" ref="V117:V153" si="14">IF(A117="","",IF(S117="Single Zone",1,0))</f>
+        <f t="shared" ref="V117:V153" si="13">IF(A117="","",IF(S117="Single Zone",1,0))</f>
         <v>0</v>
       </c>
       <c r="W117" s="4">
-        <f t="shared" ref="W117:W153" si="15">IF(A117="","",IF(S117="Single Zone",730,0))</f>
+        <f t="shared" ref="W117:W153" si="14">IF(A117="","",IF(S117="Single Zone",730,0))</f>
         <v>0</v>
       </c>
       <c r="X117" s="27">
-        <f t="shared" ref="X117:X148" si="16">IF(A117="","",U117*V117*W117)</f>
+        <f t="shared" ref="X117:X148" si="15">IF(A117="","",U117*V117*W117)</f>
         <v>0</v>
       </c>
     </row>
@@ -14916,7 +14915,7 @@
         <v>Majesty</v>
       </c>
       <c r="C118" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D118" s="4" t="str">
@@ -14976,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="S118" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T118" s="4" t="str">
@@ -14988,15 +14987,15 @@
         <v>0.25</v>
       </c>
       <c r="V118" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W118" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W118" s="4">
+      <c r="X118" s="27">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X118" s="27">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15010,7 +15009,7 @@
         <v>Crystal</v>
       </c>
       <c r="C119" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D119" s="4" t="str">
@@ -15070,7 +15069,7 @@
         <v>0</v>
       </c>
       <c r="S119" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T119" s="4" t="str">
@@ -15082,15 +15081,15 @@
         <v>0.25</v>
       </c>
       <c r="V119" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W119" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W119" s="4">
+      <c r="X119" s="27">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X119" s="27">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15104,7 +15103,7 @@
         <v>Wonder</v>
       </c>
       <c r="C120" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D120" s="4" t="str">
@@ -15164,7 +15163,7 @@
         <v>0</v>
       </c>
       <c r="S120" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T120" s="4" t="str">
@@ -15176,15 +15175,15 @@
         <v>0.25</v>
       </c>
       <c r="V120" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W120" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W120" s="4">
+      <c r="X120" s="27">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X120" s="27">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15198,7 +15197,7 @@
         <v>Dreamer</v>
       </c>
       <c r="C121" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D121" s="4" t="str">
@@ -15258,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="S121" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T121" s="4" t="str">
@@ -15270,15 +15269,15 @@
         <v>0.25</v>
       </c>
       <c r="V121" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W121" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W121" s="4">
+      <c r="X121" s="27">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X121" s="27">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15292,7 +15291,7 @@
         <v>Skyline</v>
       </c>
       <c r="C122" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D122" s="4" t="str">
@@ -15352,7 +15351,7 @@
         <v>0</v>
       </c>
       <c r="S122" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T122" s="4" t="str">
@@ -15364,15 +15363,15 @@
         <v>0.25</v>
       </c>
       <c r="V122" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W122" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W122" s="4">
+      <c r="X122" s="27">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X122" s="27">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15386,7 +15385,7 @@
         <v>Serenade</v>
       </c>
       <c r="C123" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D123" s="4" t="str">
@@ -15446,7 +15445,7 @@
         <v>0</v>
       </c>
       <c r="S123" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T123" s="4" t="str">
@@ -15458,15 +15457,15 @@
         <v>0.25</v>
       </c>
       <c r="V123" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W123" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W123" s="4">
+      <c r="X123" s="27">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X123" s="27">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15480,7 +15479,7 @@
         <v>Blissful</v>
       </c>
       <c r="C124" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D124" s="4" t="str">
@@ -15540,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="S124" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T124" s="4" t="str">
@@ -15552,29 +15551,29 @@
         <v>0.25</v>
       </c>
       <c r="V124" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W124" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W124" s="4">
+      <c r="X124" s="27">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X124" s="27">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="str">
-        <f t="shared" ref="A125:B144" si="17">IF(A49="","",A49)</f>
+        <f t="shared" ref="A125:B144" si="16">IF(A49="","",A49)</f>
         <v>Azure SQL Database</v>
       </c>
       <c r="B125" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Stardust</v>
       </c>
       <c r="C125" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D125" s="4" t="str">
@@ -15634,7 +15633,7 @@
         <v>1</v>
       </c>
       <c r="S125" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T125" s="4" t="str">
@@ -15646,29 +15645,29 @@
         <v>1.25</v>
       </c>
       <c r="V125" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W125" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W125" s="4">
+      <c r="X125" s="27">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X125" s="27">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Azure App Gateway</v>
       </c>
       <c r="B126" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Whisper</v>
       </c>
       <c r="C126" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D126" s="4" t="str">
@@ -15728,7 +15727,7 @@
         <v>0</v>
       </c>
       <c r="S126" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T126" s="4" t="str">
@@ -15740,34 +15739,34 @@
         <v>0.46800000000000003</v>
       </c>
       <c r="V126" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W126" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W126" s="4">
+      <c r="X126" s="27">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X126" s="27">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Azure App Gateway</v>
       </c>
       <c r="B127" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Amethyst</v>
       </c>
       <c r="C127" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Multi-AZ</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="D127" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Azure App Gateway-Zonal - Multi-AZ Deployment</v>
+        <v>Azure App Gateway-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E127" s="34">
         <f>IF($A127="","",VLOOKUP($D127,Master!$M$4:$V$109,10,FALSE))</f>
@@ -15783,7 +15782,7 @@
       </c>
       <c r="H127" s="15">
         <f>IF($A127="","",VLOOKUP($D127,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" s="15">
         <f>IF($A127="","",VLOOKUP($D127,Master!$M$4:$S$109,3,FALSE))</f>
@@ -15799,7 +15798,7 @@
       </c>
       <c r="L127" s="15">
         <f>IF($A127="","",VLOOKUP($D127,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M127" s="15">
         <f>IF($A127="","",VLOOKUP($D127,Master!$M$4:$S$109,5,FALSE))</f>
@@ -15822,41 +15821,41 @@
         <v>0</v>
       </c>
       <c r="S127" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Single Zone</v>
       </c>
-      <c r="T127" s="4" t="str">
+      <c r="T127" s="4">
         <f>IF($A127="","",VLOOKUP($D127,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>Azure App Gateway WAFv2</v>
+        <v>0</v>
       </c>
       <c r="U127" s="27">
         <f>IF($A127="","",VLOOKUP($D127,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0.46800000000000003</v>
+        <v>0</v>
       </c>
       <c r="V127" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="W127" s="4">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="W127" s="4">
+        <v>730</v>
+      </c>
+      <c r="X127" s="27">
         <f t="shared" si="15"/>
-        <v>730</v>
-      </c>
-      <c r="X127" s="27">
-        <f t="shared" si="16"/>
-        <v>341.64000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Azure App Gateway</v>
       </c>
       <c r="B128" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Halo</v>
       </c>
       <c r="C128" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D128" s="4" t="str">
@@ -15916,7 +15915,7 @@
         <v>0</v>
       </c>
       <c r="S128" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T128" s="4" t="str">
@@ -15928,29 +15927,29 @@
         <v>0.46800000000000003</v>
       </c>
       <c r="V128" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W128" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W128" s="4">
+      <c r="X128" s="27">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X128" s="27">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Azure Cache for Redis</v>
       </c>
       <c r="B129" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Mystic</v>
       </c>
       <c r="C129" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>Multi-AZ</v>
       </c>
       <c r="D129" s="4" t="str">
@@ -16010,7 +16009,7 @@
         <v>24</v>
       </c>
       <c r="S129" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Multi-AZ</v>
       </c>
       <c r="T129" s="4" t="str">
@@ -16022,29 +16021,29 @@
         <v>0.55400000000000005</v>
       </c>
       <c r="V129" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W129" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W129" s="4">
+      <c r="X129" s="27">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X129" s="27">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Azure Front Door Services</v>
       </c>
       <c r="B130" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Blossom</v>
       </c>
       <c r="C130" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>Zone Redundant</v>
       </c>
       <c r="D130" s="4" t="str">
@@ -16104,7 +16103,7 @@
         <v>0</v>
       </c>
       <c r="S130" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Zone Redundant</v>
       </c>
       <c r="T130" s="4">
@@ -16116,29 +16115,29 @@
         <v>0</v>
       </c>
       <c r="V130" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W130" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W130" s="4">
+      <c r="X130" s="27">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X130" s="27">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B131" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="C131" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D131" s="4" t="str">
@@ -16198,7 +16197,7 @@
         <v/>
       </c>
       <c r="S131" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T131" s="4" t="str">
@@ -16210,29 +16209,29 @@
         <v/>
       </c>
       <c r="V131" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W131" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W131" s="4" t="str">
+      <c r="X131" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X131" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B132" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="C132" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D132" s="4" t="str">
@@ -16292,7 +16291,7 @@
         <v/>
       </c>
       <c r="S132" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T132" s="4" t="str">
@@ -16304,29 +16303,29 @@
         <v/>
       </c>
       <c r="V132" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W132" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W132" s="4" t="str">
+      <c r="X132" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X132" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B133" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="C133" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D133" s="4" t="str">
@@ -16386,7 +16385,7 @@
         <v/>
       </c>
       <c r="S133" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T133" s="4" t="str">
@@ -16398,29 +16397,29 @@
         <v/>
       </c>
       <c r="V133" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W133" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W133" s="4" t="str">
+      <c r="X133" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X133" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B134" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="C134" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D134" s="4" t="str">
@@ -16480,7 +16479,7 @@
         <v/>
       </c>
       <c r="S134" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T134" s="4" t="str">
@@ -16492,29 +16491,29 @@
         <v/>
       </c>
       <c r="V134" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W134" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W134" s="4" t="str">
+      <c r="X134" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X134" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B135" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="C135" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D135" s="4" t="str">
@@ -16574,7 +16573,7 @@
         <v/>
       </c>
       <c r="S135" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T135" s="4" t="str">
@@ -16586,29 +16585,29 @@
         <v/>
       </c>
       <c r="V135" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W135" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W135" s="4" t="str">
+      <c r="X135" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X135" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B136" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="C136" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D136" s="4" t="str">
@@ -16668,7 +16667,7 @@
         <v/>
       </c>
       <c r="S136" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T136" s="4" t="str">
@@ -16680,29 +16679,29 @@
         <v/>
       </c>
       <c r="V136" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W136" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W136" s="4" t="str">
+      <c r="X136" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X136" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B137" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="C137" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D137" s="4" t="str">
@@ -16762,7 +16761,7 @@
         <v/>
       </c>
       <c r="S137" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T137" s="4" t="str">
@@ -16774,29 +16773,29 @@
         <v/>
       </c>
       <c r="V137" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W137" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W137" s="4" t="str">
+      <c r="X137" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X137" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B138" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="C138" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D138" s="4" t="str">
@@ -16856,7 +16855,7 @@
         <v/>
       </c>
       <c r="S138" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T138" s="4" t="str">
@@ -16868,29 +16867,29 @@
         <v/>
       </c>
       <c r="V138" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W138" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W138" s="4" t="str">
+      <c r="X138" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X138" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B139" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="C139" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D139" s="4" t="str">
@@ -16950,7 +16949,7 @@
         <v/>
       </c>
       <c r="S139" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T139" s="4" t="str">
@@ -16962,29 +16961,29 @@
         <v/>
       </c>
       <c r="V139" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W139" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W139" s="4" t="str">
+      <c r="X139" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X139" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B140" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="C140" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D140" s="4" t="str">
@@ -17044,7 +17043,7 @@
         <v/>
       </c>
       <c r="S140" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T140" s="4" t="str">
@@ -17056,29 +17055,29 @@
         <v/>
       </c>
       <c r="V140" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W140" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W140" s="4" t="str">
+      <c r="X140" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X140" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B141" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="C141" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D141" s="4" t="str">
@@ -17138,7 +17137,7 @@
         <v/>
       </c>
       <c r="S141" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T141" s="4" t="str">
@@ -17150,29 +17149,29 @@
         <v/>
       </c>
       <c r="V141" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W141" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W141" s="4" t="str">
+      <c r="X141" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X141" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B142" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="C142" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D142" s="4" t="str">
@@ -17232,7 +17231,7 @@
         <v/>
       </c>
       <c r="S142" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T142" s="4" t="str">
@@ -17244,29 +17243,29 @@
         <v/>
       </c>
       <c r="V142" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W142" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W142" s="4" t="str">
+      <c r="X142" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X142" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B143" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="C143" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D143" s="4" t="str">
@@ -17326,7 +17325,7 @@
         <v/>
       </c>
       <c r="S143" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T143" s="4" t="str">
@@ -17338,29 +17337,29 @@
         <v/>
       </c>
       <c r="V143" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W143" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W143" s="4" t="str">
+      <c r="X143" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X143" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="B144" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="C144" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D144" s="4" t="str">
@@ -17420,7 +17419,7 @@
         <v/>
       </c>
       <c r="S144" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T144" s="4" t="str">
@@ -17432,29 +17431,29 @@
         <v/>
       </c>
       <c r="V144" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W144" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W144" s="4" t="str">
+      <c r="X144" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X144" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="str">
-        <f t="shared" ref="A145:B153" si="18">IF(A69="","",A69)</f>
+        <f t="shared" ref="A145:B153" si="17">IF(A69="","",A69)</f>
         <v/>
       </c>
       <c r="B145" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C145" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D145" s="4" t="str">
@@ -17514,7 +17513,7 @@
         <v/>
       </c>
       <c r="S145" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T145" s="4" t="str">
@@ -17526,29 +17525,29 @@
         <v/>
       </c>
       <c r="V145" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W145" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W145" s="4" t="str">
+      <c r="X145" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X145" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B146" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C146" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D146" s="4" t="str">
@@ -17608,7 +17607,7 @@
         <v/>
       </c>
       <c r="S146" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T146" s="4" t="str">
@@ -17620,29 +17619,29 @@
         <v/>
       </c>
       <c r="V146" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W146" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W146" s="4" t="str">
+      <c r="X146" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X146" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B147" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C147" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D147" s="4" t="str">
@@ -17702,7 +17701,7 @@
         <v/>
       </c>
       <c r="S147" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T147" s="4" t="str">
@@ -17714,29 +17713,29 @@
         <v/>
       </c>
       <c r="V147" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W147" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W147" s="4" t="str">
+      <c r="X147" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X147" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B148" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C148" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D148" s="4" t="str">
@@ -17796,7 +17795,7 @@
         <v/>
       </c>
       <c r="S148" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T148" s="4" t="str">
@@ -17808,29 +17807,29 @@
         <v/>
       </c>
       <c r="V148" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W148" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W148" s="4" t="str">
+      <c r="X148" s="27" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="X148" s="27" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B149" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C149" s="4" t="str">
-        <f t="shared" ref="C149:C153" si="19">IF(A73="","",IF(C73="Zone Redundant",C73,"Multi-AZ"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D149" s="4" t="str">
@@ -17890,7 +17889,7 @@
         <v/>
       </c>
       <c r="S149" s="4" t="str">
-        <f t="shared" ref="S149:S153" si="20">IF(A73="","",IF(C73="Zone Redundant",C73,IF(C73="","Single Zone","Multi-AZ")))</f>
+        <f t="shared" ref="S149:S153" si="18">IF(A73="","",IF(C73="Zone Redundant",C73,IF(C73="","Single Zone","Multi-AZ")))</f>
         <v/>
       </c>
       <c r="T149" s="4" t="str">
@@ -17902,29 +17901,29 @@
         <v/>
       </c>
       <c r="V149" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W149" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W149" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
       <c r="X149" s="27" t="str">
-        <f t="shared" ref="X149:X153" si="21">IF(A149="","",U149*V149*W149)</f>
+        <f t="shared" ref="X149:X153" si="19">IF(A149="","",U149*V149*W149)</f>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B150" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C150" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="C150:C153" si="20">IF(C74="","",IF(C74="Zone Redundant",C74,"Multi-AZ"))</f>
         <v/>
       </c>
       <c r="D150" s="4" t="str">
@@ -17984,7 +17983,7 @@
         <v/>
       </c>
       <c r="S150" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="T150" s="4" t="str">
@@ -17996,29 +17995,29 @@
         <v/>
       </c>
       <c r="V150" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W150" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W150" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
       <c r="X150" s="27" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B151" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C151" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="D151" s="4" t="str">
@@ -18078,7 +18077,7 @@
         <v/>
       </c>
       <c r="S151" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="T151" s="4" t="str">
@@ -18090,29 +18089,29 @@
         <v/>
       </c>
       <c r="V151" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W151" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W151" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
       <c r="X151" s="27" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B152" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C152" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="D152" s="4" t="str">
@@ -18172,7 +18171,7 @@
         <v/>
       </c>
       <c r="S152" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="T152" s="4" t="str">
@@ -18184,29 +18183,29 @@
         <v/>
       </c>
       <c r="V152" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W152" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W152" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
       <c r="X152" s="27" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B153" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C153" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="D153" s="4" t="str">
@@ -18266,7 +18265,7 @@
         <v/>
       </c>
       <c r="S153" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="T153" s="4" t="str">
@@ -18278,15 +18277,15 @@
         <v/>
       </c>
       <c r="V153" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W153" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W153" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
       <c r="X153" s="27" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -18300,51 +18299,51 @@
         <v>0.999</v>
       </c>
       <c r="F155" s="9">
-        <f t="shared" ref="F155:Q155" si="22">MAX(F85:F153)</f>
+        <f t="shared" ref="F155:Q155" si="21">MAX(F85:F153)</f>
         <v>0</v>
       </c>
       <c r="G155" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H155" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>2</v>
       </c>
       <c r="I155" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>24</v>
       </c>
       <c r="J155" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K155" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L155" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>2</v>
       </c>
       <c r="M155" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>24</v>
       </c>
       <c r="N155" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="O155" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="P155" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="Q155" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="W155" s="7" t="s">
@@ -18352,7 +18351,7 @@
       </c>
       <c r="X155" s="28">
         <f>SUM(X85:X153)</f>
-        <v>1326.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.2">
@@ -18362,13 +18361,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="X83:X84"/>
-    <mergeCell ref="S82:X82"/>
-    <mergeCell ref="S83:S84"/>
-    <mergeCell ref="T83:T84"/>
-    <mergeCell ref="U83:U84"/>
-    <mergeCell ref="V83:V84"/>
-    <mergeCell ref="W83:W84"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="F82:I82"/>
     <mergeCell ref="J82:M82"/>
     <mergeCell ref="N82:Q82"/>
@@ -18378,15 +18379,13 @@
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
     <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="X83:X84"/>
+    <mergeCell ref="S82:X82"/>
+    <mergeCell ref="S83:S84"/>
+    <mergeCell ref="T83:T84"/>
+    <mergeCell ref="U83:U84"/>
+    <mergeCell ref="V83:V84"/>
+    <mergeCell ref="W83:W84"/>
   </mergeCells>
   <conditionalFormatting sqref="H79">
     <cfRule type="cellIs" dxfId="47" priority="24" operator="lessThanOrEqual">
@@ -18564,50 +18563,50 @@
       <c r="A6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41" t="s">
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="40" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="44" t="s">
+      <c r="H7" s="47"/>
+      <c r="I7" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="40" t="s">
+      <c r="J7" s="46"/>
+      <c r="K7" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="44" t="s">
+      <c r="L7" s="47"/>
+      <c r="M7" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="40" t="s">
+      <c r="N7" s="46"/>
+      <c r="O7" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="40"/>
+      <c r="P7" s="47"/>
     </row>
     <row r="8" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -22685,46 +22684,46 @@
       <c r="A82" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E82" s="41" t="s">
+      <c r="E82" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41" t="s">
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="41" t="s">
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="N82" s="41"/>
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E83" s="44" t="s">
+      <c r="E83" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="F83" s="44"/>
+      <c r="F83" s="46"/>
       <c r="G83" s="45" t="s">
         <v>80</v>
       </c>
       <c r="H83" s="45"/>
-      <c r="I83" s="44" t="s">
+      <c r="I83" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="J83" s="44"/>
+      <c r="J83" s="46"/>
       <c r="K83" s="45" t="s">
         <v>80</v>
       </c>
       <c r="L83" s="45"/>
-      <c r="M83" s="44" t="s">
+      <c r="M83" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="N83" s="44"/>
+      <c r="N83" s="46"/>
       <c r="O83" s="45" t="s">
         <v>80</v>
       </c>
@@ -27391,6 +27390,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="E82:H82"/>
     <mergeCell ref="I82:L82"/>
     <mergeCell ref="M82:P82"/>
@@ -27400,15 +27408,6 @@
     <mergeCell ref="K83:L83"/>
     <mergeCell ref="M83:N83"/>
     <mergeCell ref="O83:P83"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="G79">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThanOrEqual">
@@ -27530,6 +27529,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="80b0474e-37b4-4751-81bc-12d5121181de">
+      <UserInfo>
+        <DisplayName>Smith Mangmeetakun</DisplayName>
+        <AccountId>72</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="670f2bc3-833b-4a76-b13f-f7d6db0b8f4d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F523F0DE61C01647AADD57BC023588A4" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee28fff2fb8673b821d9cefaa23fecad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="670f2bc3-833b-4a76-b13f-f7d6db0b8f4d" xmlns:ns3="230e9df3-be65-4c73-a93b-d1236ebd677e" xmlns:ns4="80b0474e-37b4-4751-81bc-12d5121181de" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="89cbad1f211539c7601732b6d3a7f38a" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -27786,36 +27814,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{626FDD16-2397-4697-ACDD-4A4A15E67330}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="80b0474e-37b4-4751-81bc-12d5121181de"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="670f2bc3-833b-4a76-b13f-f7d6db0b8f4d"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="80b0474e-37b4-4751-81bc-12d5121181de">
-      <UserInfo>
-        <DisplayName>Smith Mangmeetakun</DisplayName>
-        <AccountId>72</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="670f2bc3-833b-4a76-b13f-f7d6db0b8f4d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B3A99D-AAD3-4558-A49E-D0B79DE8CAD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFD77F6C-2665-4616-8E0C-961858CD74CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27836,27 +27856,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B3A99D-AAD3-4558-A49E-D0B79DE8CAD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{626FDD16-2397-4697-ACDD-4A4A15E67330}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="80b0474e-37b4-4751-81bc-12d5121181de"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="670f2bc3-833b-4a76-b13f-f7d6db0b8f4d"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>

--- a/templates.xlsx
+++ b/templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smithm/GitHub/ARI-for-Reliability-Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220F57CA-305E-B445-9A86-E080B4A7E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81240D03-A90D-C14A-9603-434CAA236241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="500" windowWidth="32180" windowHeight="20100" activeTab="2" xr2:uid="{94597F4E-FC60-4FA1-B7E2-C7C1A109AD66}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{94597F4E-FC60-4FA1-B7E2-C7C1A109AD66}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="149">
   <si>
     <t>Application Criticality Level &amp; RTO and RPO (Hours)</t>
   </si>
@@ -756,10 +756,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -771,13 +768,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -785,7 +785,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="50">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1276,6 +1276,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1588,9 +1598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7A5BA1-0B99-459E-B4A9-EF40CF8C63EA}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1767,8 +1777,13 @@
       <c r="S5" s="5">
         <v>0</v>
       </c>
-      <c r="T5" s="25"/>
-      <c r="U5" s="26"/>
+      <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="26">
+        <f>0.183*2</f>
+        <v>0.36599999999999999</v>
+      </c>
       <c r="V5" s="31">
         <v>0.99950000000000006</v>
       </c>
@@ -1889,8 +1904,13 @@
       <c r="S7" s="5">
         <v>0</v>
       </c>
-      <c r="T7" s="25"/>
-      <c r="U7" s="26"/>
+      <c r="T7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="26">
+        <f>0.468*2</f>
+        <v>0.93600000000000005</v>
+      </c>
       <c r="V7" s="31">
         <v>0.999</v>
       </c>
@@ -2011,8 +2031,13 @@
       <c r="S9" s="5">
         <v>0</v>
       </c>
-      <c r="T9" s="25"/>
-      <c r="U9" s="26"/>
+      <c r="T9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="26">
+        <f>3.83*2</f>
+        <v>7.66</v>
+      </c>
       <c r="V9" s="31">
         <v>0.99950000000000006</v>
       </c>
@@ -2098,22 +2123,27 @@
         <v>2</v>
       </c>
       <c r="O11" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="P11" s="5">
         <v>2</v>
       </c>
       <c r="Q11" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R11" s="5">
         <v>2</v>
       </c>
       <c r="S11" s="5">
-        <v>24</v>
-      </c>
-      <c r="T11" s="25"/>
-      <c r="U11" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="26">
+        <f>0.554*2</f>
+        <v>1.1080000000000001</v>
+      </c>
       <c r="V11" s="31">
         <v>0.999</v>
       </c>
@@ -2148,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="S12" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T12" s="25" t="s">
         <v>28</v>
@@ -2209,7 +2239,7 @@
         <v>32</v>
       </c>
       <c r="M14" s="4" t="str">
-        <f t="shared" ref="M14:M24" si="2">_xlfn.CONCAT(K14,"-",L14)</f>
+        <f t="shared" ref="M14:M21" si="2">_xlfn.CONCAT(K14,"-",L14)</f>
         <v>Azure Front Door Services-Zone Redundant</v>
       </c>
       <c r="N14" s="5">
@@ -2225,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14" s="5">
         <v>0</v>
@@ -2268,8 +2298,13 @@
       <c r="S15" s="5">
         <v>0</v>
       </c>
-      <c r="T15" s="25"/>
-      <c r="U15" s="26"/>
+      <c r="T15" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15" s="26">
+        <f>1.75*2</f>
+        <v>3.5</v>
+      </c>
       <c r="V15" s="31">
         <v>0.99950000000000006</v>
       </c>
@@ -2348,8 +2383,13 @@
       <c r="S17" s="5">
         <v>0</v>
       </c>
-      <c r="T17" s="25"/>
-      <c r="U17" s="26"/>
+      <c r="T17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="U17" s="26">
+        <f>0.44*2</f>
+        <v>0.88</v>
+      </c>
       <c r="V17" s="31">
         <v>0.99950000000000006</v>
       </c>
@@ -2423,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S19" s="5">
         <v>0</v>
@@ -2466,8 +2506,13 @@
       <c r="S20" s="5">
         <v>0</v>
       </c>
-      <c r="T20" s="25"/>
-      <c r="U20" s="26"/>
+      <c r="T20" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20" s="26">
+        <f>0.25*2</f>
+        <v>0.5</v>
+      </c>
       <c r="V20" s="31">
         <v>0.999</v>
       </c>
@@ -2522,11 +2567,11 @@
         <v>38</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M22" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Azure Logic Apps-Zone Redundant</v>
+        <f>_xlfn.CONCAT(K22,"-",L22)</f>
+        <v>Azure Logic Apps-Zonal - Single Zone Deployment</v>
       </c>
       <c r="N22" s="5">
         <v>0</v>
@@ -2535,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="5">
         <v>0</v>
@@ -2546,8 +2591,13 @@
       <c r="S22" s="5">
         <v>0</v>
       </c>
-      <c r="T22" s="25"/>
-      <c r="U22" s="26"/>
+      <c r="T22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" s="26">
+        <f>0.183*2</f>
+        <v>0.36599999999999999</v>
+      </c>
       <c r="V22" s="31">
         <v>0.999</v>
       </c>
@@ -2557,23 +2607,23 @@
         <v>43</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M23" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Azure Public IPs-Zonal - Single Zone Deployment</v>
+        <f>_xlfn.CONCAT(K23,"-",L23)</f>
+        <v>Azure Logic Apps-Zonal - Multi-AZ Deployment</v>
       </c>
       <c r="N23" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23" s="5">
         <v>0</v>
       </c>
       <c r="P23" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="5">
         <v>0</v>
@@ -2584,10 +2634,14 @@
       <c r="S23" s="5">
         <v>0</v>
       </c>
-      <c r="T23" s="25"/>
-      <c r="U23" s="26"/>
+      <c r="T23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" s="26">
+        <v>0.183</v>
+      </c>
       <c r="V23" s="31">
-        <v>0.99950000000000006</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="24" spans="9:22" x14ac:dyDescent="0.2">
@@ -2598,20 +2652,20 @@
         <v>40</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M24" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Azure Public IPs-Zonal - Multi-AZ Deployment</v>
+        <f>_xlfn.CONCAT(K24,"-",L24)</f>
+        <v>Azure Public IPs-Zonal - Single Zone Deployment</v>
       </c>
       <c r="N24" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24" s="5">
         <v>0</v>
       </c>
       <c r="P24" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="5">
         <v>0</v>
@@ -2626,7 +2680,8 @@
         <v>45</v>
       </c>
       <c r="U24" s="26">
-        <v>6.0000000000000001E-3</v>
+        <f>0.006*2</f>
+        <v>1.2E-2</v>
       </c>
       <c r="V24" s="31">
         <v>0.99950000000000006</v>
@@ -2637,23 +2692,23 @@
         <v>46</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M25" s="4" t="str">
-        <f t="shared" ref="M25:M46" si="3">_xlfn.CONCAT(K25,"-",L25)</f>
-        <v>Azure Red Hat OpenShift-Zonal - Single Zone Deployment</v>
+        <f>_xlfn.CONCAT(K25,"-",L25)</f>
+        <v>Azure Public IPs-Zonal - Multi-AZ Deployment</v>
       </c>
       <c r="N25" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O25" s="5">
         <v>0</v>
       </c>
       <c r="P25" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="5">
         <v>0</v>
@@ -2664,8 +2719,12 @@
       <c r="S25" s="5">
         <v>0</v>
       </c>
-      <c r="T25" s="25"/>
-      <c r="U25" s="26"/>
+      <c r="T25" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="U25" s="26">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="V25" s="31">
         <v>0.99950000000000006</v>
       </c>
@@ -2678,20 +2737,20 @@
         <v>42</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M26" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Red Hat OpenShift-Zonal - Multi-AZ Deployment</v>
+        <f t="shared" ref="M26" si="3">_xlfn.CONCAT(K26,"-",L26)</f>
+        <v>Azure Red Hat OpenShift-Zonal - Single Zone Deployment</v>
       </c>
       <c r="N26" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26" s="5">
         <v>0</v>
       </c>
       <c r="P26" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="5">
         <v>0</v>
@@ -2702,9 +2761,7 @@
       <c r="S26" s="5">
         <v>0</v>
       </c>
-      <c r="T26" s="25" t="s">
-        <v>48</v>
-      </c>
+      <c r="T26" s="25"/>
       <c r="U26" s="26"/>
       <c r="V26" s="31">
         <v>0.99950000000000006</v>
@@ -2715,34 +2772,36 @@
         <v>49</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M27" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Virtual Machines-Zonal - Single Zone Deployment</v>
+        <f>_xlfn.CONCAT(K27,"-",L27)</f>
+        <v>Azure Red Hat OpenShift-Zonal - Multi-AZ Deployment</v>
       </c>
       <c r="N27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="5">
         <v>0</v>
       </c>
       <c r="P27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="5">
         <v>0</v>
       </c>
       <c r="R27" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S27" s="5">
         <v>0</v>
       </c>
-      <c r="T27" s="25"/>
+      <c r="T27" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="U27" s="26"/>
       <c r="V27" s="31">
         <v>0.99950000000000006</v>
@@ -2756,38 +2815,34 @@
         <v>50</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M28" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Virtual Machines-Zonal - Multi-AZ Deployment</v>
+        <f>_xlfn.CONCAT(K28,"-",L28)</f>
+        <v>Azure Virtual Machines-Zonal - Single Zone Deployment</v>
       </c>
       <c r="N28" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="5">
         <v>0</v>
       </c>
       <c r="P28" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="5">
         <v>0</v>
       </c>
       <c r="R28" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S28" s="5">
         <v>0</v>
       </c>
-      <c r="T28" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="U28" s="26">
-        <v>0.25</v>
-      </c>
+      <c r="T28" s="25"/>
+      <c r="U28" s="26"/>
       <c r="V28" s="31">
-        <v>0.99990000000000001</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="29" spans="9:22" x14ac:dyDescent="0.2">
@@ -2795,37 +2850,41 @@
         <v>52</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M29" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Virtual Machines Scale Set-Zonal - Single Zone Deployment</v>
+        <f>_xlfn.CONCAT(K29,"-",L29)</f>
+        <v>Azure Virtual Machines-Zonal - Multi-AZ Deployment</v>
       </c>
       <c r="N29" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29" s="5">
         <v>0</v>
       </c>
       <c r="P29" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="5">
         <v>0</v>
       </c>
       <c r="R29" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S29" s="5">
         <v>0</v>
       </c>
-      <c r="T29" s="25"/>
-      <c r="U29" s="26"/>
+      <c r="T29" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="U29" s="26">
+        <v>0.25</v>
+      </c>
       <c r="V29" s="31">
-        <v>0.99950000000000006</v>
+        <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="30" spans="9:22" x14ac:dyDescent="0.2">
@@ -2833,20 +2892,20 @@
         <v>52</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M30" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Virtual Machines Scale Set-Zonal - Multi-AZ Deployment</v>
+        <f>_xlfn.CONCAT(K30,"-",L30)</f>
+        <v>Azure Virtual Machines Scale Set-Zonal - Single Zone Deployment</v>
       </c>
       <c r="N30" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30" s="5">
         <v>0</v>
       </c>
       <c r="P30" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="5">
         <v>0</v>
@@ -2857,26 +2916,22 @@
       <c r="S30" s="5">
         <v>0</v>
       </c>
-      <c r="T30" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="U30" s="26">
-        <v>0.25</v>
-      </c>
+      <c r="T30" s="25"/>
+      <c r="U30" s="26"/>
       <c r="V30" s="31">
-        <v>0.99990000000000001</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="31" spans="9:22" x14ac:dyDescent="0.2">
       <c r="K31" s="4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M31" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Cosmos DB-Zonal - Single Zone Deployment</v>
+        <f>_xlfn.CONCAT(K31,"-",L31)</f>
+        <v>Azure Virtual Machines Scale Set-Zonal - Multi-AZ Deployment</v>
       </c>
       <c r="N31" s="5">
         <v>0</v>
@@ -2885,23 +2940,25 @@
         <v>0</v>
       </c>
       <c r="P31" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="5">
         <v>2</v>
       </c>
       <c r="S31" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T31" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="U31" s="26"/>
+        <v>53</v>
+      </c>
+      <c r="U31" s="26">
+        <v>0.25</v>
+      </c>
       <c r="V31" s="31">
-        <v>0.99950000000000006</v>
+        <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="32" spans="9:22" x14ac:dyDescent="0.2">
@@ -2909,11 +2966,11 @@
         <v>23</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M32" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Cosmos DB-Zonal - Multi-AZ Deployment</v>
+        <f>_xlfn.CONCAT(K32,"-",L32)</f>
+        <v>Azure Cosmos DB-Zonal - Single Zone Deployment</v>
       </c>
       <c r="N32" s="5">
         <v>0</v>
@@ -2922,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="5">
         <v>2</v>
@@ -2934,37 +2991,35 @@
         <v>24</v>
       </c>
       <c r="T32" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="U32" s="26">
-        <v>0.1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="U32" s="26"/>
       <c r="V32" s="31">
         <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="33" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K33" s="4" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M33" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Storage-Zonal - Single Zone Deployment</v>
+        <f>_xlfn.CONCAT(K33,"-",L33)</f>
+        <v>Azure Cosmos DB-Zonal - Multi-AZ Deployment</v>
       </c>
       <c r="N33" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O33" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="P33" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R33" s="5">
         <v>2</v>
@@ -2972,10 +3027,14 @@
       <c r="S33" s="5">
         <v>24</v>
       </c>
-      <c r="T33" s="25"/>
-      <c r="U33" s="26"/>
+      <c r="T33" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="U33" s="26">
+        <v>0.1</v>
+      </c>
       <c r="V33" s="31">
-        <v>0.999</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="34" spans="10:22" x14ac:dyDescent="0.2">
@@ -2983,23 +3042,23 @@
         <v>47</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M34" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Storage-Zonal - Multi-AZ Deployment</v>
+        <f>_xlfn.CONCAT(K34,"-",L34)</f>
+        <v>Azure Storage-Zonal - Single Zone Deployment</v>
       </c>
       <c r="N34" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P34" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R34" s="5">
         <v>2</v>
@@ -3023,37 +3082,42 @@
         <v>57</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M35" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure SQL Managed Instance-Zonal - Single Zone Deployment</v>
+        <f>_xlfn.CONCAT(K35,"-",L35)</f>
+        <v>Azure Storage-Zonal - Multi-AZ Deployment</v>
       </c>
       <c r="N35" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O35" s="5">
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0</v>
+      </c>
+      <c r="R35" s="5">
+        <v>2</v>
+      </c>
+      <c r="S35" s="5">
         <v>24</v>
       </c>
-      <c r="P35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R35" s="5">
-        <v>12</v>
-      </c>
-      <c r="S35" s="5">
-        <v>1</v>
-      </c>
-      <c r="T35" s="25"/>
-      <c r="U35" s="26"/>
+      <c r="T35" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="U35" s="26">
+        <f>5/730</f>
+        <v>6.8493150684931503E-3</v>
+      </c>
       <c r="V35" s="31">
-        <v>0.99990000000000001</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="36" spans="10:22" x14ac:dyDescent="0.2">
@@ -3061,23 +3125,23 @@
         <v>44</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M36" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure SQL Managed Instance-Zonal - Multi-AZ Deployment</v>
+        <f>_xlfn.CONCAT(K36,"-",L36)</f>
+        <v>Azure SQL Managed Instance-Zonal - Single Zone Deployment</v>
       </c>
       <c r="N36" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O36" s="5">
-        <v>0</v>
-      </c>
-      <c r="P36" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="R36" s="5">
         <v>12</v>
@@ -3089,7 +3153,8 @@
         <v>60</v>
       </c>
       <c r="U36" s="26">
-        <v>2.95</v>
+        <f>2.95*2</f>
+        <v>5.9</v>
       </c>
       <c r="V36" s="31">
         <v>0.99990000000000001</v>
@@ -3097,28 +3162,26 @@
     </row>
     <row r="37" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K37" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M37" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure SQL Database-Zonal - Single Zone Deployment</v>
+        <f>_xlfn.CONCAT(K37,"-",L37)</f>
+        <v>Azure SQL Managed Instance-Zonal - Multi-AZ Deployment</v>
       </c>
       <c r="N37" s="5">
-        <v>2</v>
-      </c>
-      <c r="O37" s="23">
-        <f>5/60</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0</v>
       </c>
       <c r="P37" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="23">
-        <f>5/60</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0</v>
       </c>
       <c r="R37" s="5">
         <v>12</v>
@@ -3126,8 +3189,12 @@
       <c r="S37" s="5">
         <v>1</v>
       </c>
-      <c r="T37" s="25"/>
-      <c r="U37" s="26"/>
+      <c r="T37" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="U37" s="26">
+        <v>2.95</v>
+      </c>
       <c r="V37" s="31">
         <v>0.99990000000000001</v>
       </c>
@@ -3137,23 +3204,25 @@
         <v>43</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M38" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure SQL Database-Zonal - Multi-AZ Deployment</v>
+        <f>_xlfn.CONCAT(K38,"-",L38)</f>
+        <v>Azure SQL Database-Zonal - Single Zone Deployment</v>
       </c>
       <c r="N38" s="5">
-        <v>0</v>
-      </c>
-      <c r="O38" s="5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O38" s="23">
+        <f>5/60</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="P38" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Q38" s="23">
+        <f>5/60</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R38" s="5">
         <v>12</v>
@@ -3165,57 +3234,62 @@
         <v>61</v>
       </c>
       <c r="U38" s="26">
-        <v>1.25</v>
+        <f>1.25*2</f>
+        <v>2.5</v>
       </c>
       <c r="V38" s="31">
-        <v>0.99995000000000001</v>
+        <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="39" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K39" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M39" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure SQL Server on VM-Zonal - Single Zone Deployment</v>
+        <f>_xlfn.CONCAT(K39,"-",L39)</f>
+        <v>Azure SQL Database-Zonal - Multi-AZ Deployment</v>
       </c>
       <c r="N39" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O39" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="P39" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R39" s="5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="S39" s="5">
-        <v>24</v>
-      </c>
-      <c r="T39" s="25"/>
-      <c r="U39" s="26"/>
+        <v>1</v>
+      </c>
+      <c r="T39" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="U39" s="26">
+        <v>1.25</v>
+      </c>
       <c r="V39" s="31">
-        <v>0.99950000000000006</v>
+        <v>0.99995000000000001</v>
       </c>
     </row>
     <row r="40" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K40" s="4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M40" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Database for PostgreSQL-Zonal - Single Zone Deployment</v>
+        <f>_xlfn.CONCAT(K40,"-",L40)</f>
+        <v>Azure SQL Server on VM-Zonal - Single Zone Deployment</v>
       </c>
       <c r="N40" s="5">
         <v>2</v>
@@ -3238,7 +3312,7 @@
       <c r="T40" s="25"/>
       <c r="U40" s="26"/>
       <c r="V40" s="31">
-        <v>0.99990000000000001</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="41" spans="10:22" x14ac:dyDescent="0.2">
@@ -3246,23 +3320,23 @@
         <v>27</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M41" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Database for PostgreSQL-Zonal - Multi-AZ Deployment</v>
+        <f>_xlfn.CONCAT(K41,"-",L41)</f>
+        <v>Azure Database for PostgreSQL-Zonal - Single Zone Deployment</v>
       </c>
       <c r="N41" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O41" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P41" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R41" s="5">
         <v>2</v>
@@ -3274,7 +3348,8 @@
         <v>62</v>
       </c>
       <c r="U41" s="26">
-        <v>0.49</v>
+        <f>0.49*2</f>
+        <v>0.98</v>
       </c>
       <c r="V41" s="31">
         <v>0.99990000000000001</v>
@@ -3282,26 +3357,26 @@
     </row>
     <row r="42" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K42" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M42" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Database for MySQL-Zonal - Single Zone Deployment</v>
+        <f>_xlfn.CONCAT(K42,"-",L42)</f>
+        <v>Azure Database for PostgreSQL-Zonal - Multi-AZ Deployment</v>
       </c>
       <c r="N42" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="P42" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R42" s="5">
         <v>2</v>
@@ -3309,8 +3384,12 @@
       <c r="S42" s="5">
         <v>24</v>
       </c>
-      <c r="T42" s="25"/>
-      <c r="U42" s="26"/>
+      <c r="T42" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="U42" s="26">
+        <v>0.49</v>
+      </c>
       <c r="V42" s="31">
         <v>0.99990000000000001</v>
       </c>
@@ -3320,23 +3399,23 @@
         <v>26</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M43" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Database for MySQL-Zonal - Multi-AZ Deployment</v>
+        <f>_xlfn.CONCAT(K43,"-",L43)</f>
+        <v>Azure Database for MySQL-Zonal - Single Zone Deployment</v>
       </c>
       <c r="N43" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O43" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P43" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q43" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R43" s="5">
         <v>2</v>
@@ -3348,7 +3427,8 @@
         <v>62</v>
       </c>
       <c r="U43" s="26">
-        <v>0.47</v>
+        <f>0.47*2</f>
+        <v>0.94</v>
       </c>
       <c r="V43" s="31">
         <v>0.99990000000000001</v>
@@ -3356,49 +3436,53 @@
     </row>
     <row r="44" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="4" t="str">
+        <f>_xlfn.CONCAT(K44,"-",L44)</f>
+        <v>Azure Database for MySQL-Zonal - Multi-AZ Deployment</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>0</v>
+      </c>
+      <c r="R44" s="5">
+        <v>2</v>
+      </c>
+      <c r="S44" s="5">
         <v>24</v>
       </c>
-      <c r="L44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Data Factory-Zone Redundant</v>
-      </c>
-      <c r="N44" s="5">
-        <v>0</v>
-      </c>
-      <c r="O44" s="5">
-        <v>0</v>
-      </c>
-      <c r="P44" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>0</v>
-      </c>
-      <c r="R44" s="5">
-        <v>2</v>
-      </c>
-      <c r="S44" s="5">
-        <v>0</v>
-      </c>
-      <c r="T44" s="25"/>
-      <c r="U44" s="26"/>
+      <c r="T44" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="U44" s="26">
+        <v>0.47</v>
+      </c>
       <c r="V44" s="31">
-        <v>0.999</v>
+        <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="45" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K45" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>32</v>
       </c>
       <c r="M45" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Databricks-Zone Redundant</v>
+        <f>_xlfn.CONCAT(K45,"-",L45)</f>
+        <v>Azure Data Factory-Zone Redundant</v>
       </c>
       <c r="N45" s="5">
         <v>0</v>
@@ -3421,57 +3505,78 @@
       <c r="T45" s="25"/>
       <c r="U45" s="26"/>
       <c r="V45" s="31">
-        <v>0.99950000000000006</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="46" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K46" s="4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>32</v>
       </c>
       <c r="M46" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Azure Synapse Analytics - SQL Pool-Zone Redundant</v>
+        <f>_xlfn.CONCAT(K46,"-",L46)</f>
+        <v>Azure Databricks-Zone Redundant</v>
       </c>
       <c r="N46" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="P46" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R46" s="5">
         <v>2</v>
       </c>
       <c r="S46" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T46" s="25"/>
       <c r="U46" s="26"/>
       <c r="V46" s="31">
-        <v>0.999</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="47" spans="10:22" x14ac:dyDescent="0.2">
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
+      <c r="K47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="4" t="str">
+        <f>_xlfn.CONCAT(K47,"-",L47)</f>
+        <v>Azure Synapse Analytics - SQL Pool-Zone Redundant</v>
+      </c>
+      <c r="N47" s="5">
+        <v>2</v>
+      </c>
+      <c r="O47" s="5">
+        <v>24</v>
+      </c>
+      <c r="P47" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>24</v>
+      </c>
+      <c r="R47" s="5">
+        <v>2</v>
+      </c>
+      <c r="S47" s="5">
+        <v>24</v>
+      </c>
       <c r="T47" s="25"/>
       <c r="U47" s="26"/>
-      <c r="V47" s="31"/>
+      <c r="V47" s="31">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="48" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K48" s="4"/>
@@ -3516,7 +3621,12 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
   </mergeCells>
-  <conditionalFormatting sqref="N5:S49">
+  <conditionalFormatting sqref="N5:S21 N23:S49">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:S22">
     <cfRule type="cellIs" dxfId="48" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6970,18 +7080,18 @@
   <dimension ref="A1:X156"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomRight" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="38.5" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="54.83203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="17" width="6.83203125" customWidth="1"/>
     <col min="18" max="18" width="3.1640625" customWidth="1"/>
@@ -7020,57 +7130,57 @@
         <v>77</v>
       </c>
       <c r="B4" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42" t="s">
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="47" t="s">
+      <c r="G7" s="43"/>
+      <c r="H7" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="46" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47" t="s">
+      <c r="K7" s="44"/>
+      <c r="L7" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="46" t="s">
+      <c r="M7" s="40"/>
+      <c r="N7" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="46"/>
-      <c r="P7" s="47" t="s">
+      <c r="O7" s="44"/>
+      <c r="P7" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="47"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -7161,7 +7271,7 @@
       </c>
       <c r="J9" s="5">
         <f>IF(A9="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" s="5">
         <f>IF(A9="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -7181,7 +7291,7 @@
       </c>
       <c r="O9" s="5">
         <f>IF(A9="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P9" s="11">
         <f>IF($A9="","",VLOOKUP($D9,Master!$M$4:$S$109,6,FALSE))</f>
@@ -7228,7 +7338,7 @@
       </c>
       <c r="J10" s="5">
         <f>IF(A10="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" s="5">
         <f>IF(A10="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -7248,7 +7358,7 @@
       </c>
       <c r="O10" s="5">
         <f>IF(A10="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P10" s="11">
         <f>IF($A10="","",VLOOKUP($D10,Master!$M$4:$S$109,6,FALSE))</f>
@@ -7295,7 +7405,7 @@
       </c>
       <c r="J11" s="5">
         <f>IF(A11="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" s="5">
         <f>IF(A11="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -7315,7 +7425,7 @@
       </c>
       <c r="O11" s="5">
         <f>IF(A11="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P11" s="11">
         <f>IF($A11="","",VLOOKUP($D11,Master!$M$4:$S$109,6,FALSE))</f>
@@ -7362,7 +7472,7 @@
       </c>
       <c r="J12" s="5">
         <f>IF(A12="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" s="5">
         <f>IF(A12="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -7382,7 +7492,7 @@
       </c>
       <c r="O12" s="5">
         <f>IF(A12="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P12" s="11">
         <f>IF($A12="","",VLOOKUP($D12,Master!$M$4:$S$109,6,FALSE))</f>
@@ -7429,7 +7539,7 @@
       </c>
       <c r="J13" s="5">
         <f>IF(A13="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="5">
         <f>IF(A13="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -7449,7 +7559,7 @@
       </c>
       <c r="O13" s="5">
         <f>IF(A13="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P13" s="11">
         <f>IF($A13="","",VLOOKUP($D13,Master!$M$4:$S$109,6,FALSE))</f>
@@ -7496,7 +7606,7 @@
       </c>
       <c r="J14" s="5">
         <f>IF(A14="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" s="5">
         <f>IF(A14="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -7516,7 +7626,7 @@
       </c>
       <c r="O14" s="5">
         <f>IF(A14="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P14" s="11">
         <f>IF($A14="","",VLOOKUP($D14,Master!$M$4:$S$109,6,FALSE))</f>
@@ -7563,7 +7673,7 @@
       </c>
       <c r="J15" s="5">
         <f>IF(A15="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" s="5">
         <f>IF(A15="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -7583,7 +7693,7 @@
       </c>
       <c r="O15" s="5">
         <f>IF(A15="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P15" s="11">
         <f>IF($A15="","",VLOOKUP($D15,Master!$M$4:$S$109,6,FALSE))</f>
@@ -7630,7 +7740,7 @@
       </c>
       <c r="J16" s="5">
         <f>IF(A16="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" s="5">
         <f>IF(A16="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -7650,7 +7760,7 @@
       </c>
       <c r="O16" s="5">
         <f>IF(A16="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P16" s="11">
         <f>IF($A16="","",VLOOKUP($D16,Master!$M$4:$S$109,6,FALSE))</f>
@@ -7697,7 +7807,7 @@
       </c>
       <c r="J17" s="5">
         <f>IF(A17="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" s="5">
         <f>IF(A17="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -7717,7 +7827,7 @@
       </c>
       <c r="O17" s="5">
         <f>IF(A17="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P17" s="11">
         <f>IF($A17="","",VLOOKUP($D17,Master!$M$4:$S$109,6,FALSE))</f>
@@ -7764,7 +7874,7 @@
       </c>
       <c r="J18" s="5">
         <f>IF(A18="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="5">
         <f>IF(A18="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -7784,7 +7894,7 @@
       </c>
       <c r="O18" s="5">
         <f>IF(A18="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P18" s="11">
         <f>IF($A18="","",VLOOKUP($D18,Master!$M$4:$S$109,6,FALSE))</f>
@@ -7831,7 +7941,7 @@
       </c>
       <c r="J19" s="5">
         <f>IF(A19="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="5">
         <f>IF(A19="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -7851,7 +7961,7 @@
       </c>
       <c r="O19" s="5">
         <f>IF(A19="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P19" s="11">
         <f>IF($A19="","",VLOOKUP($D19,Master!$M$4:$S$109,6,FALSE))</f>
@@ -7898,7 +8008,7 @@
       </c>
       <c r="J20" s="5">
         <f>IF(A20="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="5">
         <f>IF(A20="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -7918,7 +8028,7 @@
       </c>
       <c r="O20" s="5">
         <f>IF(A20="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P20" s="11">
         <f>IF($A20="","",VLOOKUP($D20,Master!$M$4:$S$109,6,FALSE))</f>
@@ -7965,7 +8075,7 @@
       </c>
       <c r="J21" s="5">
         <f>IF(A21="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="5">
         <f>IF(A21="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -7985,7 +8095,7 @@
       </c>
       <c r="O21" s="5">
         <f>IF(A21="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P21" s="11">
         <f>IF($A21="","",VLOOKUP($D21,Master!$M$4:$S$109,6,FALSE))</f>
@@ -8032,7 +8142,7 @@
       </c>
       <c r="J22" s="5">
         <f>IF(A22="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" s="5">
         <f>IF(A22="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -8052,7 +8162,7 @@
       </c>
       <c r="O22" s="5">
         <f>IF(A22="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P22" s="11">
         <f>IF($A22="","",VLOOKUP($D22,Master!$M$4:$S$109,6,FALSE))</f>
@@ -8099,7 +8209,7 @@
       </c>
       <c r="J23" s="5">
         <f>IF(A23="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" s="5">
         <f>IF(A23="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -8119,7 +8229,7 @@
       </c>
       <c r="O23" s="5">
         <f>IF(A23="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P23" s="11">
         <f>IF($A23="","",VLOOKUP($D23,Master!$M$4:$S$109,6,FALSE))</f>
@@ -8166,7 +8276,7 @@
       </c>
       <c r="J24" s="5">
         <f>IF(A24="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="5">
         <f>IF(A24="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -8186,7 +8296,7 @@
       </c>
       <c r="O24" s="5">
         <f>IF(A24="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P24" s="11">
         <f>IF($A24="","",VLOOKUP($D24,Master!$M$4:$S$109,6,FALSE))</f>
@@ -8234,7 +8344,7 @@
       </c>
       <c r="J25" s="5">
         <f>IF(A25="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="5">
         <f>IF(A25="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -8254,7 +8364,7 @@
       </c>
       <c r="O25" s="5">
         <f>IF(A25="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P25" s="11">
         <f>IF($A25="","",VLOOKUP($D25,Master!$M$4:$S$109,6,FALSE))</f>
@@ -8301,7 +8411,7 @@
       </c>
       <c r="J26" s="5">
         <f>IF(A26="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" s="5">
         <f>IF(A26="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -8321,7 +8431,7 @@
       </c>
       <c r="O26" s="5">
         <f>IF(A26="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P26" s="11">
         <f>IF($A26="","",VLOOKUP($D26,Master!$M$4:$S$109,6,FALSE))</f>
@@ -8368,7 +8478,7 @@
       </c>
       <c r="J27" s="5">
         <f>IF(A27="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27" s="5">
         <f>IF(A27="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -8388,7 +8498,7 @@
       </c>
       <c r="O27" s="5">
         <f>IF(A27="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P27" s="11">
         <f>IF($A27="","",VLOOKUP($D27,Master!$M$4:$S$109,6,FALSE))</f>
@@ -8435,7 +8545,7 @@
       </c>
       <c r="J28" s="5">
         <f>IF(A28="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K28" s="5">
         <f>IF(A28="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -8455,7 +8565,7 @@
       </c>
       <c r="O28" s="5">
         <f>IF(A28="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P28" s="11">
         <f>IF($A28="","",VLOOKUP($D28,Master!$M$4:$S$109,6,FALSE))</f>
@@ -8502,7 +8612,7 @@
       </c>
       <c r="J29" s="5">
         <f>IF(A29="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" s="5">
         <f>IF(A29="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -8522,7 +8632,7 @@
       </c>
       <c r="O29" s="5">
         <f>IF(A29="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P29" s="11">
         <f>IF($A29="","",VLOOKUP($D29,Master!$M$4:$S$109,6,FALSE))</f>
@@ -8569,7 +8679,7 @@
       </c>
       <c r="J30" s="5">
         <f>IF(A30="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" s="5">
         <f>IF(A30="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -8589,7 +8699,7 @@
       </c>
       <c r="O30" s="5">
         <f>IF(A30="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P30" s="11">
         <f>IF($A30="","",VLOOKUP($D30,Master!$M$4:$S$109,6,FALSE))</f>
@@ -8636,7 +8746,7 @@
       </c>
       <c r="J31" s="5">
         <f>IF(A31="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31" s="5">
         <f>IF(A31="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -8656,7 +8766,7 @@
       </c>
       <c r="O31" s="5">
         <f>IF(A31="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P31" s="11">
         <f>IF($A31="","",VLOOKUP($D31,Master!$M$4:$S$109,6,FALSE))</f>
@@ -8703,7 +8813,7 @@
       </c>
       <c r="J32" s="5">
         <f>IF(A32="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" s="5">
         <f>IF(A32="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -8723,7 +8833,7 @@
       </c>
       <c r="O32" s="5">
         <f>IF(A32="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P32" s="11">
         <f>IF($A32="","",VLOOKUP($D32,Master!$M$4:$S$109,6,FALSE))</f>
@@ -8770,7 +8880,7 @@
       </c>
       <c r="J33" s="5">
         <f>IF(A33="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33" s="5">
         <f>IF(A33="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -8790,7 +8900,7 @@
       </c>
       <c r="O33" s="5">
         <f>IF(A33="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P33" s="11">
         <f>IF($A33="","",VLOOKUP($D33,Master!$M$4:$S$109,6,FALSE))</f>
@@ -8837,7 +8947,7 @@
       </c>
       <c r="J34" s="5">
         <f>IF(A34="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" s="5">
         <f>IF(A34="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -8857,7 +8967,7 @@
       </c>
       <c r="O34" s="5">
         <f>IF(A34="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P34" s="11">
         <f>IF($A34="","",VLOOKUP($D34,Master!$M$4:$S$109,6,FALSE))</f>
@@ -8870,21 +8980,19 @@
     </row>
     <row r="35" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>69</v>
-      </c>
+      <c r="C35" s="18"/>
       <c r="D35" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Azure Virtual Machines-Zonal - Single Zone Deployment</v>
+        <v>Azure Logic Apps-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E35" s="34">
         <f>IF($A35="","",VLOOKUP($D35,Master!$M$4:$V$109,10,FALSE))</f>
-        <v>0.99950000000000006</v>
+        <v>0.999</v>
       </c>
       <c r="F35" s="5">
         <f>IF(A35="","",VLOOKUP($B$4,Master!$A$4:$G$8,2,FALSE))</f>
@@ -8896,7 +9004,7 @@
       </c>
       <c r="H35" s="11">
         <f>IF($A35="","",VLOOKUP($D35,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="11">
         <f>IF($A35="","",VLOOKUP($D35,Master!$M$4:$S$109,3,FALSE))</f>
@@ -8904,7 +9012,7 @@
       </c>
       <c r="J35" s="5">
         <f>IF(A35="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35" s="5">
         <f>IF(A35="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -8912,7 +9020,7 @@
       </c>
       <c r="L35" s="11">
         <f>IF($A35="","",VLOOKUP($D35,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" s="11">
         <f>IF($A35="","",VLOOKUP($D35,Master!$M$4:$S$109,5,FALSE))</f>
@@ -8924,11 +9032,11 @@
       </c>
       <c r="O35" s="5">
         <f>IF(A35="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P35" s="11">
         <f>IF($A35="","",VLOOKUP($D35,Master!$M$4:$S$109,6,FALSE))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q35" s="11">
         <f>IF($A35="","",VLOOKUP($D35,Master!$M$4:$S$109,7,FALSE))</f>
@@ -8971,7 +9079,7 @@
       </c>
       <c r="J36" s="5">
         <f>IF(A36="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36" s="5">
         <f>IF(A36="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -8991,7 +9099,7 @@
       </c>
       <c r="O36" s="5">
         <f>IF(A36="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P36" s="11">
         <f>IF($A36="","",VLOOKUP($D36,Master!$M$4:$S$109,6,FALSE))</f>
@@ -9038,7 +9146,7 @@
       </c>
       <c r="J37" s="5">
         <f>IF(A37="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K37" s="5">
         <f>IF(A37="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -9058,7 +9166,7 @@
       </c>
       <c r="O37" s="5">
         <f>IF(A37="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P37" s="11">
         <f>IF($A37="","",VLOOKUP($D37,Master!$M$4:$S$109,6,FALSE))</f>
@@ -9105,7 +9213,7 @@
       </c>
       <c r="J38" s="5">
         <f>IF(A38="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38" s="5">
         <f>IF(A38="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -9125,7 +9233,7 @@
       </c>
       <c r="O38" s="5">
         <f>IF(A38="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P38" s="11">
         <f>IF($A38="","",VLOOKUP($D38,Master!$M$4:$S$109,6,FALSE))</f>
@@ -9172,7 +9280,7 @@
       </c>
       <c r="J39" s="5">
         <f>IF(A39="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39" s="5">
         <f>IF(A39="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -9192,7 +9300,7 @@
       </c>
       <c r="O39" s="5">
         <f>IF(A39="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P39" s="11">
         <f>IF($A39="","",VLOOKUP($D39,Master!$M$4:$S$109,6,FALSE))</f>
@@ -9239,7 +9347,7 @@
       </c>
       <c r="J40" s="5">
         <f>IF(A40="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" s="5">
         <f>IF(A40="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -9259,7 +9367,7 @@
       </c>
       <c r="O40" s="5">
         <f>IF(A40="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P40" s="11">
         <f>IF($A40="","",VLOOKUP($D40,Master!$M$4:$S$109,6,FALSE))</f>
@@ -9306,7 +9414,7 @@
       </c>
       <c r="J41" s="5">
         <f>IF(A41="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41" s="5">
         <f>IF(A41="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -9326,7 +9434,7 @@
       </c>
       <c r="O41" s="5">
         <f>IF(A41="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P41" s="11">
         <f>IF($A41="","",VLOOKUP($D41,Master!$M$4:$S$109,6,FALSE))</f>
@@ -9373,7 +9481,7 @@
       </c>
       <c r="J42" s="5">
         <f>IF(A42="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42" s="5">
         <f>IF(A42="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -9393,7 +9501,7 @@
       </c>
       <c r="O42" s="5">
         <f>IF(A42="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P42" s="11">
         <f>IF($A42="","",VLOOKUP($D42,Master!$M$4:$S$109,6,FALSE))</f>
@@ -9440,7 +9548,7 @@
       </c>
       <c r="J43" s="5">
         <f>IF(A43="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43" s="5">
         <f>IF(A43="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -9460,7 +9568,7 @@
       </c>
       <c r="O43" s="5">
         <f>IF(A43="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P43" s="11">
         <f>IF($A43="","",VLOOKUP($D43,Master!$M$4:$S$109,6,FALSE))</f>
@@ -9507,7 +9615,7 @@
       </c>
       <c r="J44" s="5">
         <f>IF(A44="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44" s="5">
         <f>IF(A44="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -9527,7 +9635,7 @@
       </c>
       <c r="O44" s="5">
         <f>IF(A44="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P44" s="11">
         <f>IF($A44="","",VLOOKUP($D44,Master!$M$4:$S$109,6,FALSE))</f>
@@ -9574,7 +9682,7 @@
       </c>
       <c r="J45" s="5">
         <f>IF(A45="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45" s="5">
         <f>IF(A45="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -9594,7 +9702,7 @@
       </c>
       <c r="O45" s="5">
         <f>IF(A45="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P45" s="11">
         <f>IF($A45="","",VLOOKUP($D45,Master!$M$4:$S$109,6,FALSE))</f>
@@ -9641,7 +9749,7 @@
       </c>
       <c r="J46" s="5">
         <f>IF(A46="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K46" s="5">
         <f>IF(A46="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -9661,7 +9769,7 @@
       </c>
       <c r="O46" s="5">
         <f>IF(A46="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P46" s="11">
         <f>IF($A46="","",VLOOKUP($D46,Master!$M$4:$S$109,6,FALSE))</f>
@@ -9708,7 +9816,7 @@
       </c>
       <c r="J47" s="5">
         <f>IF(A47="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K47" s="5">
         <f>IF(A47="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -9728,7 +9836,7 @@
       </c>
       <c r="O47" s="5">
         <f>IF(A47="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P47" s="11">
         <f>IF($A47="","",VLOOKUP($D47,Master!$M$4:$S$109,6,FALSE))</f>
@@ -9775,7 +9883,7 @@
       </c>
       <c r="J48" s="5">
         <f>IF(A48="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K48" s="5">
         <f>IF(A48="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -9795,7 +9903,7 @@
       </c>
       <c r="O48" s="5">
         <f>IF(A48="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P48" s="11">
         <f>IF($A48="","",VLOOKUP($D48,Master!$M$4:$S$109,6,FALSE))</f>
@@ -9842,7 +9950,7 @@
       </c>
       <c r="J49" s="5">
         <f>IF(A49="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" s="5">
         <f>IF(A49="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -9862,7 +9970,7 @@
       </c>
       <c r="O49" s="5">
         <f>IF(A49="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P49" s="11">
         <f>IF($A49="","",VLOOKUP($D49,Master!$M$4:$S$109,6,FALSE))</f>
@@ -9909,7 +10017,7 @@
       </c>
       <c r="J50" s="5">
         <f>IF(A50="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50" s="5">
         <f>IF(A50="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -9929,7 +10037,7 @@
       </c>
       <c r="O50" s="5">
         <f>IF(A50="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P50" s="11">
         <f>IF($A50="","",VLOOKUP($D50,Master!$M$4:$S$109,6,FALSE))</f>
@@ -9976,7 +10084,7 @@
       </c>
       <c r="J51" s="5">
         <f>IF(A51="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51" s="5">
         <f>IF(A51="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -9996,7 +10104,7 @@
       </c>
       <c r="O51" s="5">
         <f>IF(A51="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P51" s="11">
         <f>IF($A51="","",VLOOKUP($D51,Master!$M$4:$S$109,6,FALSE))</f>
@@ -10043,7 +10151,7 @@
       </c>
       <c r="J52" s="5">
         <f>IF(A52="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K52" s="5">
         <f>IF(A52="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -10063,7 +10171,7 @@
       </c>
       <c r="O52" s="5">
         <f>IF(A52="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P52" s="11">
         <f>IF($A52="","",VLOOKUP($D52,Master!$M$4:$S$109,6,FALSE))</f>
@@ -10110,7 +10218,7 @@
       </c>
       <c r="J53" s="5">
         <f>IF(A53="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K53" s="5">
         <f>IF(A53="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -10130,7 +10238,7 @@
       </c>
       <c r="O53" s="5">
         <f>IF(A53="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P53" s="11">
         <f>IF($A53="","",VLOOKUP($D53,Master!$M$4:$S$109,6,FALSE))</f>
@@ -10138,7 +10246,7 @@
       </c>
       <c r="Q53" s="11">
         <f>IF($A53="","",VLOOKUP($D53,Master!$M$4:$S$109,7,FALSE))</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -10177,7 +10285,7 @@
       </c>
       <c r="J54" s="5">
         <f>IF(A54="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K54" s="5">
         <f>IF(A54="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -10197,11 +10305,11 @@
       </c>
       <c r="O54" s="5">
         <f>IF(A54="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P54" s="11">
         <f>IF($A54="","",VLOOKUP($D54,Master!$M$4:$S$109,6,FALSE))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="11">
         <f>IF($A54="","",VLOOKUP($D54,Master!$M$4:$S$109,7,FALSE))</f>
@@ -11638,7 +11746,7 @@
       </c>
       <c r="J79" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K79" s="9">
         <f t="shared" si="2"/>
@@ -11658,7 +11766,7 @@
       </c>
       <c r="O79" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P79" s="12">
         <f t="shared" si="2"/>
@@ -11673,74 +11781,74 @@
       <c r="A82" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F82" s="42" t="s">
+      <c r="F82" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42" t="s">
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="42"/>
-      <c r="N82" s="42" t="s">
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="O82" s="42"/>
-      <c r="P82" s="42"/>
-      <c r="Q82" s="42"/>
-      <c r="S82" s="41" t="s">
+      <c r="O82" s="41"/>
+      <c r="P82" s="41"/>
+      <c r="Q82" s="41"/>
+      <c r="S82" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="T82" s="41"/>
-      <c r="U82" s="41"/>
-      <c r="V82" s="41"/>
-      <c r="W82" s="41"/>
-      <c r="X82" s="41"/>
+      <c r="T82" s="47"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="47"/>
+      <c r="W82" s="47"/>
+      <c r="X82" s="47"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="F83" s="43" t="s">
+      <c r="F83" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="G83" s="44"/>
+      <c r="G83" s="43"/>
       <c r="H83" s="45" t="s">
         <v>80</v>
       </c>
       <c r="I83" s="45"/>
-      <c r="J83" s="46" t="s">
+      <c r="J83" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="K83" s="46"/>
+      <c r="K83" s="44"/>
       <c r="L83" s="45" t="s">
         <v>80</v>
       </c>
       <c r="M83" s="45"/>
-      <c r="N83" s="46" t="s">
+      <c r="N83" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="O83" s="46"/>
+      <c r="O83" s="44"/>
       <c r="P83" s="45" t="s">
         <v>80</v>
       </c>
       <c r="Q83" s="45"/>
-      <c r="S83" s="40" t="s">
+      <c r="S83" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="T83" s="40" t="s">
+      <c r="T83" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="U83" s="40" t="s">
+      <c r="U83" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="V83" s="40" t="s">
+      <c r="V83" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="W83" s="40" t="s">
+      <c r="W83" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="X83" s="40" t="s">
+      <c r="X83" s="46" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11796,12 +11904,12 @@
       <c r="Q84" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S84" s="40"/>
-      <c r="T84" s="40"/>
-      <c r="U84" s="40"/>
-      <c r="V84" s="40"/>
-      <c r="W84" s="40"/>
-      <c r="X84" s="40"/>
+      <c r="S84" s="46"/>
+      <c r="T84" s="46"/>
+      <c r="U84" s="46"/>
+      <c r="V84" s="46"/>
+      <c r="W84" s="46"/>
+      <c r="X84" s="46"/>
     </row>
     <row r="85" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="str">
@@ -11842,7 +11950,7 @@
       </c>
       <c r="J85" s="5">
         <f>IF(A85="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K85" s="5">
         <f>IF(A85="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -11862,7 +11970,7 @@
       </c>
       <c r="O85" s="5">
         <f>IF(A85="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P85" s="15">
         <f>IF($A85="","",VLOOKUP($D85,Master!$M$4:$S$109,6,FALSE))</f>
@@ -11876,13 +11984,13 @@
         <f t="shared" ref="S85:S116" si="4">IF(A9="","",IF(C9="Zone Redundant",C9,IF(C9="","Single Zone","Multi-AZ")))</f>
         <v>Single Zone</v>
       </c>
-      <c r="T85" s="4">
+      <c r="T85" s="4" t="str">
         <f>IF($A85="","",VLOOKUP($D85,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
       </c>
       <c r="U85" s="27">
         <f>IF($A85="","",VLOOKUP($D85,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="V85" s="4">
         <f t="shared" ref="V85:V116" si="5">IF(A85="","",IF(S85="Single Zone",1,0))</f>
@@ -11894,7 +12002,7 @@
       </c>
       <c r="X85" s="27">
         <f t="shared" ref="X85:X116" si="7">IF(A85="","",U85*V85*W85)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -11936,7 +12044,7 @@
       </c>
       <c r="J86" s="5">
         <f>IF(A86="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K86" s="5">
         <f>IF(A86="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -11956,7 +12064,7 @@
       </c>
       <c r="O86" s="5">
         <f>IF(A86="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P86" s="15">
         <f>IF($A86="","",VLOOKUP($D86,Master!$M$4:$S$109,6,FALSE))</f>
@@ -11970,13 +12078,13 @@
         <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T86" s="4">
+      <c r="T86" s="4" t="str">
         <f>IF($A86="","",VLOOKUP($D86,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
       </c>
       <c r="U86" s="27">
         <f>IF($A86="","",VLOOKUP($D86,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="V86" s="4">
         <f t="shared" si="5"/>
@@ -11988,7 +12096,7 @@
       </c>
       <c r="X86" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12030,7 +12138,7 @@
       </c>
       <c r="J87" s="5">
         <f>IF(A87="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K87" s="5">
         <f>IF(A87="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -12050,7 +12158,7 @@
       </c>
       <c r="O87" s="5">
         <f>IF(A87="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P87" s="15">
         <f>IF($A87="","",VLOOKUP($D87,Master!$M$4:$S$109,6,FALSE))</f>
@@ -12064,13 +12172,13 @@
         <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T87" s="4">
+      <c r="T87" s="4" t="str">
         <f>IF($A87="","",VLOOKUP($D87,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
       </c>
       <c r="U87" s="27">
         <f>IF($A87="","",VLOOKUP($D87,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="V87" s="4">
         <f t="shared" si="5"/>
@@ -12082,7 +12190,7 @@
       </c>
       <c r="X87" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12124,7 +12232,7 @@
       </c>
       <c r="J88" s="5">
         <f>IF(A88="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K88" s="5">
         <f>IF(A88="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -12144,7 +12252,7 @@
       </c>
       <c r="O88" s="5">
         <f>IF(A88="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P88" s="15">
         <f>IF($A88="","",VLOOKUP($D88,Master!$M$4:$S$109,6,FALSE))</f>
@@ -12218,7 +12326,7 @@
       </c>
       <c r="J89" s="5">
         <f>IF(A89="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K89" s="5">
         <f>IF(A89="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -12238,7 +12346,7 @@
       </c>
       <c r="O89" s="5">
         <f>IF(A89="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P89" s="15">
         <f>IF($A89="","",VLOOKUP($D89,Master!$M$4:$S$109,6,FALSE))</f>
@@ -12312,7 +12420,7 @@
       </c>
       <c r="J90" s="5">
         <f>IF(A90="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K90" s="5">
         <f>IF(A90="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -12332,7 +12440,7 @@
       </c>
       <c r="O90" s="5">
         <f>IF(A90="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P90" s="15">
         <f>IF($A90="","",VLOOKUP($D90,Master!$M$4:$S$109,6,FALSE))</f>
@@ -12406,7 +12514,7 @@
       </c>
       <c r="J91" s="5">
         <f>IF(A91="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K91" s="5">
         <f>IF(A91="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -12426,7 +12534,7 @@
       </c>
       <c r="O91" s="5">
         <f>IF(A91="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P91" s="15">
         <f>IF($A91="","",VLOOKUP($D91,Master!$M$4:$S$109,6,FALSE))</f>
@@ -12440,13 +12548,13 @@
         <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T91" s="4">
+      <c r="T91" s="4" t="str">
         <f>IF($A91="","",VLOOKUP($D91,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
       </c>
       <c r="U91" s="27">
         <f>IF($A91="","",VLOOKUP($D91,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="V91" s="4">
         <f t="shared" si="5"/>
@@ -12458,7 +12566,7 @@
       </c>
       <c r="X91" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12500,7 +12608,7 @@
       </c>
       <c r="J92" s="5">
         <f>IF(A92="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K92" s="5">
         <f>IF(A92="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -12520,7 +12628,7 @@
       </c>
       <c r="O92" s="5">
         <f>IF(A92="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P92" s="15">
         <f>IF($A92="","",VLOOKUP($D92,Master!$M$4:$S$109,6,FALSE))</f>
@@ -12534,13 +12642,13 @@
         <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T92" s="4">
+      <c r="T92" s="4" t="str">
         <f>IF($A92="","",VLOOKUP($D92,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
       </c>
       <c r="U92" s="27">
         <f>IF($A92="","",VLOOKUP($D92,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="V92" s="4">
         <f t="shared" si="5"/>
@@ -12552,7 +12660,7 @@
       </c>
       <c r="X92" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12594,7 +12702,7 @@
       </c>
       <c r="J93" s="5">
         <f>IF(A93="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K93" s="5">
         <f>IF(A93="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -12614,7 +12722,7 @@
       </c>
       <c r="O93" s="5">
         <f>IF(A93="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P93" s="15">
         <f>IF($A93="","",VLOOKUP($D93,Master!$M$4:$S$109,6,FALSE))</f>
@@ -12628,13 +12736,13 @@
         <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T93" s="4">
+      <c r="T93" s="4" t="str">
         <f>IF($A93="","",VLOOKUP($D93,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
       </c>
       <c r="U93" s="27">
         <f>IF($A93="","",VLOOKUP($D93,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="V93" s="4">
         <f t="shared" si="5"/>
@@ -12646,7 +12754,7 @@
       </c>
       <c r="X93" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12688,7 +12796,7 @@
       </c>
       <c r="J94" s="5">
         <f>IF(A94="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94" s="5">
         <f>IF(A94="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -12708,7 +12816,7 @@
       </c>
       <c r="O94" s="5">
         <f>IF(A94="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P94" s="15">
         <f>IF($A94="","",VLOOKUP($D94,Master!$M$4:$S$109,6,FALSE))</f>
@@ -12722,13 +12830,13 @@
         <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T94" s="4">
+      <c r="T94" s="4" t="str">
         <f>IF($A94="","",VLOOKUP($D94,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
       </c>
       <c r="U94" s="27">
         <f>IF($A94="","",VLOOKUP($D94,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="V94" s="4">
         <f t="shared" si="5"/>
@@ -12740,7 +12848,7 @@
       </c>
       <c r="X94" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12782,7 +12890,7 @@
       </c>
       <c r="J95" s="5">
         <f>IF(A95="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K95" s="5">
         <f>IF(A95="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -12802,7 +12910,7 @@
       </c>
       <c r="O95" s="5">
         <f>IF(A95="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P95" s="15">
         <f>IF($A95="","",VLOOKUP($D95,Master!$M$4:$S$109,6,FALSE))</f>
@@ -12876,7 +12984,7 @@
       </c>
       <c r="J96" s="5">
         <f>IF(A96="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K96" s="5">
         <f>IF(A96="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -12896,7 +13004,7 @@
       </c>
       <c r="O96" s="5">
         <f>IF(A96="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P96" s="15">
         <f>IF($A96="","",VLOOKUP($D96,Master!$M$4:$S$109,6,FALSE))</f>
@@ -12910,13 +13018,13 @@
         <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T96" s="4">
+      <c r="T96" s="4" t="str">
         <f>IF($A96="","",VLOOKUP($D96,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
       </c>
       <c r="U96" s="27">
         <f>IF($A96="","",VLOOKUP($D96,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="V96" s="4">
         <f t="shared" si="5"/>
@@ -12928,7 +13036,7 @@
       </c>
       <c r="X96" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12970,7 +13078,7 @@
       </c>
       <c r="J97" s="5">
         <f>IF(A97="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K97" s="5">
         <f>IF(A97="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -12990,7 +13098,7 @@
       </c>
       <c r="O97" s="5">
         <f>IF(A97="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P97" s="15">
         <f>IF($A97="","",VLOOKUP($D97,Master!$M$4:$S$109,6,FALSE))</f>
@@ -13004,13 +13112,13 @@
         <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T97" s="4">
+      <c r="T97" s="4" t="str">
         <f>IF($A97="","",VLOOKUP($D97,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
       </c>
       <c r="U97" s="27">
         <f>IF($A97="","",VLOOKUP($D97,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="V97" s="4">
         <f t="shared" si="5"/>
@@ -13022,7 +13130,7 @@
       </c>
       <c r="X97" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13064,7 +13172,7 @@
       </c>
       <c r="J98" s="5">
         <f>IF(A98="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K98" s="5">
         <f>IF(A98="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -13084,7 +13192,7 @@
       </c>
       <c r="O98" s="5">
         <f>IF(A98="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P98" s="15">
         <f>IF($A98="","",VLOOKUP($D98,Master!$M$4:$S$109,6,FALSE))</f>
@@ -13098,13 +13206,13 @@
         <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T98" s="4">
+      <c r="T98" s="4" t="str">
         <f>IF($A98="","",VLOOKUP($D98,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
       </c>
       <c r="U98" s="27">
         <f>IF($A98="","",VLOOKUP($D98,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="V98" s="4">
         <f t="shared" si="5"/>
@@ -13116,7 +13224,7 @@
       </c>
       <c r="X98" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13158,7 +13266,7 @@
       </c>
       <c r="J99" s="5">
         <f>IF(A99="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K99" s="5">
         <f>IF(A99="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -13178,7 +13286,7 @@
       </c>
       <c r="O99" s="5">
         <f>IF(A99="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P99" s="15">
         <f>IF($A99="","",VLOOKUP($D99,Master!$M$4:$S$109,6,FALSE))</f>
@@ -13192,13 +13300,13 @@
         <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T99" s="4">
+      <c r="T99" s="4" t="str">
         <f>IF($A99="","",VLOOKUP($D99,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure BLOB Storage (ZRS, 1 TB)</v>
       </c>
       <c r="U99" s="27">
         <f>IF($A99="","",VLOOKUP($D99,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="V99" s="4">
         <f t="shared" si="5"/>
@@ -13210,7 +13318,7 @@
       </c>
       <c r="X99" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13252,7 +13360,7 @@
       </c>
       <c r="J100" s="5">
         <f>IF(A100="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K100" s="5">
         <f>IF(A100="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -13272,7 +13380,7 @@
       </c>
       <c r="O100" s="5">
         <f>IF(A100="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P100" s="15">
         <f>IF($A100="","",VLOOKUP($D100,Master!$M$4:$S$109,6,FALSE))</f>
@@ -13346,7 +13454,7 @@
       </c>
       <c r="J101" s="5">
         <f>IF(A101="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K101" s="5">
         <f>IF(A101="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -13366,7 +13474,7 @@
       </c>
       <c r="O101" s="5">
         <f>IF(A101="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P101" s="15">
         <f>IF($A101="","",VLOOKUP($D101,Master!$M$4:$S$109,6,FALSE))</f>
@@ -13380,13 +13488,13 @@
         <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T101" s="4">
+      <c r="T101" s="4" t="str">
         <f>IF($A101="","",VLOOKUP($D101,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure IP, Public Address, Standard (ARM)</v>
       </c>
       <c r="U101" s="27">
         <f>IF($A101="","",VLOOKUP($D101,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="V101" s="4">
         <f t="shared" si="5"/>
@@ -13398,7 +13506,7 @@
       </c>
       <c r="X101" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="102" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13440,7 +13548,7 @@
       </c>
       <c r="J102" s="5">
         <f>IF(A102="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K102" s="5">
         <f>IF(A102="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -13460,7 +13568,7 @@
       </c>
       <c r="O102" s="5">
         <f>IF(A102="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P102" s="15">
         <f>IF($A102="","",VLOOKUP($D102,Master!$M$4:$S$109,6,FALSE))</f>
@@ -13474,13 +13582,13 @@
         <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T102" s="4">
+      <c r="T102" s="4" t="str">
         <f>IF($A102="","",VLOOKUP($D102,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure IP, Public Address, Standard (ARM)</v>
       </c>
       <c r="U102" s="27">
         <f>IF($A102="","",VLOOKUP($D102,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="V102" s="4">
         <f t="shared" si="5"/>
@@ -13492,7 +13600,7 @@
       </c>
       <c r="X102" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="103" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13534,7 +13642,7 @@
       </c>
       <c r="J103" s="5">
         <f>IF(A103="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K103" s="5">
         <f>IF(A103="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -13554,7 +13662,7 @@
       </c>
       <c r="O103" s="5">
         <f>IF(A103="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P103" s="15">
         <f>IF($A103="","",VLOOKUP($D103,Master!$M$4:$S$109,6,FALSE))</f>
@@ -13568,13 +13676,13 @@
         <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T103" s="4">
+      <c r="T103" s="4" t="str">
         <f>IF($A103="","",VLOOKUP($D103,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure IP, Public Address, Standard (ARM)</v>
       </c>
       <c r="U103" s="27">
         <f>IF($A103="","",VLOOKUP($D103,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="V103" s="4">
         <f t="shared" si="5"/>
@@ -13586,7 +13694,7 @@
       </c>
       <c r="X103" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="104" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13628,7 +13736,7 @@
       </c>
       <c r="J104" s="5">
         <f>IF(A104="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K104" s="5">
         <f>IF(A104="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -13648,7 +13756,7 @@
       </c>
       <c r="O104" s="5">
         <f>IF(A104="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P104" s="15">
         <f>IF($A104="","",VLOOKUP($D104,Master!$M$4:$S$109,6,FALSE))</f>
@@ -13662,13 +13770,13 @@
         <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T104" s="4">
+      <c r="T104" s="4" t="str">
         <f>IF($A104="","",VLOOKUP($D104,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure IP, Public Address, Standard (ARM)</v>
       </c>
       <c r="U104" s="27">
         <f>IF($A104="","",VLOOKUP($D104,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="V104" s="4">
         <f t="shared" si="5"/>
@@ -13680,7 +13788,7 @@
       </c>
       <c r="X104" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="105" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13722,7 +13830,7 @@
       </c>
       <c r="J105" s="5">
         <f>IF(A105="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K105" s="5">
         <f>IF(A105="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -13742,7 +13850,7 @@
       </c>
       <c r="O105" s="5">
         <f>IF(A105="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P105" s="15">
         <f>IF($A105="","",VLOOKUP($D105,Master!$M$4:$S$109,6,FALSE))</f>
@@ -13816,7 +13924,7 @@
       </c>
       <c r="J106" s="5">
         <f>IF(A106="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K106" s="5">
         <f>IF(A106="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -13836,7 +13944,7 @@
       </c>
       <c r="O106" s="5">
         <f>IF(A106="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P106" s="15">
         <f>IF($A106="","",VLOOKUP($D106,Master!$M$4:$S$109,6,FALSE))</f>
@@ -13910,7 +14018,7 @@
       </c>
       <c r="J107" s="5">
         <f>IF(A107="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K107" s="5">
         <f>IF(A107="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -13930,7 +14038,7 @@
       </c>
       <c r="O107" s="5">
         <f>IF(A107="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P107" s="15">
         <f>IF($A107="","",VLOOKUP($D107,Master!$M$4:$S$109,6,FALSE))</f>
@@ -14004,7 +14112,7 @@
       </c>
       <c r="J108" s="5">
         <f>IF(A108="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K108" s="5">
         <f>IF(A108="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -14024,7 +14132,7 @@
       </c>
       <c r="O108" s="5">
         <f>IF(A108="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P108" s="15">
         <f>IF($A108="","",VLOOKUP($D108,Master!$M$4:$S$109,6,FALSE))</f>
@@ -14098,7 +14206,7 @@
       </c>
       <c r="J109" s="5">
         <f>IF(A109="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K109" s="5">
         <f>IF(A109="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -14118,7 +14226,7 @@
       </c>
       <c r="O109" s="5">
         <f>IF(A109="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P109" s="15">
         <f>IF($A109="","",VLOOKUP($D109,Master!$M$4:$S$109,6,FALSE))</f>
@@ -14192,7 +14300,7 @@
       </c>
       <c r="J110" s="5">
         <f>IF(A110="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K110" s="5">
         <f>IF(A110="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -14212,7 +14320,7 @@
       </c>
       <c r="O110" s="5">
         <f>IF(A110="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P110" s="15">
         <f>IF($A110="","",VLOOKUP($D110,Master!$M$4:$S$109,6,FALSE))</f>
@@ -14250,7 +14358,7 @@
     <row r="111" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Azure Virtual Machines</v>
+        <v>Azure Logic Apps</v>
       </c>
       <c r="B111" s="4" t="str">
         <f t="shared" si="11"/>
@@ -14262,11 +14370,11 @@
       </c>
       <c r="D111" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Azure Virtual Machines-Zonal - Single Zone Deployment</v>
+        <v>Azure Logic Apps-Zonal - Single Zone Deployment</v>
       </c>
       <c r="E111" s="34">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$V$109,10,FALSE))</f>
-        <v>0.99950000000000006</v>
+        <v>0.999</v>
       </c>
       <c r="F111" s="5">
         <f>IF(A111="","",VLOOKUP($B$4,Master!$A$4:$G$8,2,FALSE))</f>
@@ -14278,7 +14386,7 @@
       </c>
       <c r="H111" s="15">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$S$109,2,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" s="15">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$S$109,3,FALSE))</f>
@@ -14286,7 +14394,7 @@
       </c>
       <c r="J111" s="5">
         <f>IF(A111="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K111" s="5">
         <f>IF(A111="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -14294,7 +14402,7 @@
       </c>
       <c r="L111" s="15">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$S$109,4,FALSE))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M111" s="15">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$S$109,5,FALSE))</f>
@@ -14306,11 +14414,11 @@
       </c>
       <c r="O111" s="5">
         <f>IF(A111="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P111" s="15">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$S$109,6,FALSE))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q111" s="15">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$S$109,7,FALSE))</f>
@@ -14320,13 +14428,13 @@
         <f t="shared" si="4"/>
         <v>Single Zone</v>
       </c>
-      <c r="T111" s="4">
+      <c r="T111" s="4" t="str">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure App Services P1V3 - 2 Cores</v>
       </c>
       <c r="U111" s="27">
         <f>IF($A111="","",VLOOKUP($D111,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="V111" s="4">
         <f t="shared" si="5"/>
@@ -14338,7 +14446,7 @@
       </c>
       <c r="X111" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>267.18</v>
       </c>
     </row>
     <row r="112" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -14380,7 +14488,7 @@
       </c>
       <c r="J112" s="5">
         <f>IF(A112="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K112" s="5">
         <f>IF(A112="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -14400,7 +14508,7 @@
       </c>
       <c r="O112" s="5">
         <f>IF(A112="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P112" s="15">
         <f>IF($A112="","",VLOOKUP($D112,Master!$M$4:$S$109,6,FALSE))</f>
@@ -14474,7 +14582,7 @@
       </c>
       <c r="J113" s="5">
         <f>IF(A113="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K113" s="5">
         <f>IF(A113="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -14494,7 +14602,7 @@
       </c>
       <c r="O113" s="5">
         <f>IF(A113="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P113" s="15">
         <f>IF($A113="","",VLOOKUP($D113,Master!$M$4:$S$109,6,FALSE))</f>
@@ -14568,7 +14676,7 @@
       </c>
       <c r="J114" s="5">
         <f>IF(A114="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K114" s="5">
         <f>IF(A114="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -14588,7 +14696,7 @@
       </c>
       <c r="O114" s="5">
         <f>IF(A114="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P114" s="15">
         <f>IF($A114="","",VLOOKUP($D114,Master!$M$4:$S$109,6,FALSE))</f>
@@ -14662,7 +14770,7 @@
       </c>
       <c r="J115" s="5">
         <f>IF(A115="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K115" s="5">
         <f>IF(A115="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -14682,7 +14790,7 @@
       </c>
       <c r="O115" s="5">
         <f>IF(A115="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P115" s="15">
         <f>IF($A115="","",VLOOKUP($D115,Master!$M$4:$S$109,6,FALSE))</f>
@@ -14756,7 +14864,7 @@
       </c>
       <c r="J116" s="5">
         <f>IF(A116="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K116" s="5">
         <f>IF(A116="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -14776,7 +14884,7 @@
       </c>
       <c r="O116" s="5">
         <f>IF(A116="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P116" s="15">
         <f>IF($A116="","",VLOOKUP($D116,Master!$M$4:$S$109,6,FALSE))</f>
@@ -14850,7 +14958,7 @@
       </c>
       <c r="J117" s="5">
         <f>IF(A117="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K117" s="5">
         <f>IF(A117="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -14870,7 +14978,7 @@
       </c>
       <c r="O117" s="5">
         <f>IF(A117="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P117" s="15">
         <f>IF($A117="","",VLOOKUP($D117,Master!$M$4:$S$109,6,FALSE))</f>
@@ -14944,7 +15052,7 @@
       </c>
       <c r="J118" s="5">
         <f>IF(A118="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K118" s="5">
         <f>IF(A118="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -14964,7 +15072,7 @@
       </c>
       <c r="O118" s="5">
         <f>IF(A118="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P118" s="15">
         <f>IF($A118="","",VLOOKUP($D118,Master!$M$4:$S$109,6,FALSE))</f>
@@ -15038,7 +15146,7 @@
       </c>
       <c r="J119" s="5">
         <f>IF(A119="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K119" s="5">
         <f>IF(A119="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -15058,7 +15166,7 @@
       </c>
       <c r="O119" s="5">
         <f>IF(A119="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P119" s="15">
         <f>IF($A119="","",VLOOKUP($D119,Master!$M$4:$S$109,6,FALSE))</f>
@@ -15132,7 +15240,7 @@
       </c>
       <c r="J120" s="5">
         <f>IF(A120="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K120" s="5">
         <f>IF(A120="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -15152,7 +15260,7 @@
       </c>
       <c r="O120" s="5">
         <f>IF(A120="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P120" s="15">
         <f>IF($A120="","",VLOOKUP($D120,Master!$M$4:$S$109,6,FALSE))</f>
@@ -15226,7 +15334,7 @@
       </c>
       <c r="J121" s="5">
         <f>IF(A121="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K121" s="5">
         <f>IF(A121="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -15246,7 +15354,7 @@
       </c>
       <c r="O121" s="5">
         <f>IF(A121="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P121" s="15">
         <f>IF($A121="","",VLOOKUP($D121,Master!$M$4:$S$109,6,FALSE))</f>
@@ -15320,7 +15428,7 @@
       </c>
       <c r="J122" s="5">
         <f>IF(A122="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K122" s="5">
         <f>IF(A122="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -15340,7 +15448,7 @@
       </c>
       <c r="O122" s="5">
         <f>IF(A122="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P122" s="15">
         <f>IF($A122="","",VLOOKUP($D122,Master!$M$4:$S$109,6,FALSE))</f>
@@ -15414,7 +15522,7 @@
       </c>
       <c r="J123" s="5">
         <f>IF(A123="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K123" s="5">
         <f>IF(A123="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -15434,7 +15542,7 @@
       </c>
       <c r="O123" s="5">
         <f>IF(A123="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P123" s="15">
         <f>IF($A123="","",VLOOKUP($D123,Master!$M$4:$S$109,6,FALSE))</f>
@@ -15508,7 +15616,7 @@
       </c>
       <c r="J124" s="5">
         <f>IF(A124="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K124" s="5">
         <f>IF(A124="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -15528,7 +15636,7 @@
       </c>
       <c r="O124" s="5">
         <f>IF(A124="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P124" s="15">
         <f>IF($A124="","",VLOOKUP($D124,Master!$M$4:$S$109,6,FALSE))</f>
@@ -15602,7 +15710,7 @@
       </c>
       <c r="J125" s="5">
         <f>IF(A125="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K125" s="5">
         <f>IF(A125="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -15622,7 +15730,7 @@
       </c>
       <c r="O125" s="5">
         <f>IF(A125="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P125" s="15">
         <f>IF($A125="","",VLOOKUP($D125,Master!$M$4:$S$109,6,FALSE))</f>
@@ -15696,7 +15804,7 @@
       </c>
       <c r="J126" s="5">
         <f>IF(A126="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K126" s="5">
         <f>IF(A126="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -15716,7 +15824,7 @@
       </c>
       <c r="O126" s="5">
         <f>IF(A126="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P126" s="15">
         <f>IF($A126="","",VLOOKUP($D126,Master!$M$4:$S$109,6,FALSE))</f>
@@ -15790,7 +15898,7 @@
       </c>
       <c r="J127" s="5">
         <f>IF(A127="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K127" s="5">
         <f>IF(A127="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -15810,7 +15918,7 @@
       </c>
       <c r="O127" s="5">
         <f>IF(A127="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P127" s="15">
         <f>IF($A127="","",VLOOKUP($D127,Master!$M$4:$S$109,6,FALSE))</f>
@@ -15824,13 +15932,13 @@
         <f t="shared" si="12"/>
         <v>Single Zone</v>
       </c>
-      <c r="T127" s="4">
+      <c r="T127" s="4" t="str">
         <f>IF($A127="","",VLOOKUP($D127,Master!$M$4:$U$109,8,FALSE))</f>
-        <v>0</v>
+        <v>Azure App Gateway WAFv2</v>
       </c>
       <c r="U127" s="27">
         <f>IF($A127="","",VLOOKUP($D127,Master!$M$4:$U$109,9,FALSE))</f>
-        <v>0</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="V127" s="4">
         <f t="shared" si="13"/>
@@ -15842,7 +15950,7 @@
       </c>
       <c r="X127" s="27">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>683.28000000000009</v>
       </c>
     </row>
     <row r="128" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -15884,7 +15992,7 @@
       </c>
       <c r="J128" s="5">
         <f>IF(A128="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K128" s="5">
         <f>IF(A128="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -15904,7 +16012,7 @@
       </c>
       <c r="O128" s="5">
         <f>IF(A128="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P128" s="15">
         <f>IF($A128="","",VLOOKUP($D128,Master!$M$4:$S$109,6,FALSE))</f>
@@ -15978,7 +16086,7 @@
       </c>
       <c r="J129" s="5">
         <f>IF(A129="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K129" s="5">
         <f>IF(A129="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -15998,7 +16106,7 @@
       </c>
       <c r="O129" s="5">
         <f>IF(A129="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P129" s="15">
         <f>IF($A129="","",VLOOKUP($D129,Master!$M$4:$S$109,6,FALSE))</f>
@@ -16006,7 +16114,7 @@
       </c>
       <c r="Q129" s="15">
         <f>IF($A129="","",VLOOKUP($D129,Master!$M$4:$S$109,7,FALSE))</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S129" s="4" t="str">
         <f t="shared" si="12"/>
@@ -16072,7 +16180,7 @@
       </c>
       <c r="J130" s="5">
         <f>IF(A130="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K130" s="5">
         <f>IF(A130="","",VLOOKUP($B$4,Master!$A$4:$G$8,5,FALSE))</f>
@@ -16092,11 +16200,11 @@
       </c>
       <c r="O130" s="5">
         <f>IF(A130="","",VLOOKUP($B$4,Master!$A$4:$G$8,7,FALSE))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P130" s="15">
         <f>IF($A130="","",VLOOKUP($D130,Master!$M$4:$S$109,6,FALSE))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q130" s="15">
         <f>IF($A130="","",VLOOKUP($D130,Master!$M$4:$S$109,7,FALSE))</f>
@@ -18316,7 +18424,7 @@
       </c>
       <c r="J155" s="9">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K155" s="9">
         <f t="shared" si="21"/>
@@ -18336,7 +18444,7 @@
       </c>
       <c r="O155" s="9">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P155" s="16">
         <f t="shared" si="21"/>
@@ -18351,7 +18459,7 @@
       </c>
       <c r="X155" s="28">
         <f>SUM(X85:X153)</f>
-        <v>0</v>
+        <v>1040.5</v>
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.2">
@@ -18361,6 +18469,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="X83:X84"/>
+    <mergeCell ref="S82:X82"/>
+    <mergeCell ref="S83:S84"/>
+    <mergeCell ref="T83:T84"/>
+    <mergeCell ref="U83:U84"/>
+    <mergeCell ref="V83:V84"/>
+    <mergeCell ref="W83:W84"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="F6:I6"/>
@@ -18370,22 +18494,6 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="X83:X84"/>
-    <mergeCell ref="S82:X82"/>
-    <mergeCell ref="S83:S84"/>
-    <mergeCell ref="T83:T84"/>
-    <mergeCell ref="U83:U84"/>
-    <mergeCell ref="V83:V84"/>
-    <mergeCell ref="W83:W84"/>
   </mergeCells>
   <conditionalFormatting sqref="H79">
     <cfRule type="cellIs" dxfId="47" priority="24" operator="lessThanOrEqual">
@@ -18563,50 +18671,50 @@
       <c r="A6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42" t="s">
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="46" t="s">
+      <c r="H7" s="40"/>
+      <c r="I7" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="46" t="s">
+      <c r="L7" s="40"/>
+      <c r="M7" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47" t="s">
+      <c r="N7" s="44"/>
+      <c r="O7" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="47"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -18869,7 +18977,7 @@
       </c>
       <c r="H12" s="11">
         <f>IF($A12="","",VLOOKUP($D12,Master!$M$4:$S$109,3,FALSE))</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I12" s="5">
         <f>IF(A12="","",VLOOKUP($B$4,Master!$A$4:$G$8,4,FALSE))</f>
@@ -18885,7 +18993,7 @@
       </c>
       <c r="L12" s="11">
         <f>IF($A12="","",VLOOKUP($D12,Master!$M$4:$S$109,5,FALSE))</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5">
         <f>IF(A12="","",VLOOKUP($B$4,Master!$A$4:$G$8,6,FALSE))</f>
@@ -18901,7 +19009,7 @@
       </c>
       <c r="P12" s="11">
         <f>IF($A12="","",VLOOKUP($D12,Master!$M$4:$S$109,7,FALSE))</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -22684,46 +22792,46 @@
       <c r="A82" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E82" s="42" t="s">
+      <c r="E82" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42" t="s">
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="42" t="s">
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N82" s="42"/>
-      <c r="O82" s="42"/>
-      <c r="P82" s="42"/>
+      <c r="N82" s="41"/>
+      <c r="O82" s="41"/>
+      <c r="P82" s="41"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E83" s="46" t="s">
+      <c r="E83" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="F83" s="46"/>
+      <c r="F83" s="44"/>
       <c r="G83" s="45" t="s">
         <v>80</v>
       </c>
       <c r="H83" s="45"/>
-      <c r="I83" s="46" t="s">
+      <c r="I83" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J83" s="46"/>
+      <c r="J83" s="44"/>
       <c r="K83" s="45" t="s">
         <v>80</v>
       </c>
       <c r="L83" s="45"/>
-      <c r="M83" s="46" t="s">
+      <c r="M83" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="N83" s="46"/>
+      <c r="N83" s="44"/>
       <c r="O83" s="45" t="s">
         <v>80</v>
       </c>
@@ -23040,7 +23148,7 @@
       </c>
       <c r="P88" s="15">
         <f>IF($A88="","",VLOOKUP($D88,Master!$M$4:$S$109,7,FALSE))</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -27390,6 +27498,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="M82:P82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="O83:P83"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="M6:P6"/>
@@ -27399,15 +27516,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="M82:P82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="O83:P83"/>
   </mergeCells>
   <conditionalFormatting sqref="G79">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThanOrEqual">
@@ -27549,15 +27657,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F523F0DE61C01647AADD57BC023588A4" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee28fff2fb8673b821d9cefaa23fecad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="670f2bc3-833b-4a76-b13f-f7d6db0b8f4d" xmlns:ns3="230e9df3-be65-4c73-a93b-d1236ebd677e" xmlns:ns4="80b0474e-37b4-4751-81bc-12d5121181de" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="89cbad1f211539c7601732b6d3a7f38a" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -27814,6 +27913,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{626FDD16-2397-4697-ACDD-4A4A15E67330}">
   <ds:schemaRefs>
@@ -27828,14 +27936,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B3A99D-AAD3-4558-A49E-D0B79DE8CAD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFD77F6C-2665-4616-8E0C-961858CD74CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27856,6 +27956,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B3A99D-AAD3-4558-A49E-D0B79DE8CAD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>

--- a/templates.xlsx
+++ b/templates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft.sharepoint.com/teams/CloudConsumption/Shared Documents/General/Collaboration Space/Azure Resiliency and RTO&amp;RPO Assessment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smithm/GitHub/ARI-for-Reliability-Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="14_{F321295A-5199-4D1A-805B-426CF27F6907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B95D979-5F10-4973-94AC-F4D68E28783B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2D8C0D-0B7D-7140-A085-EF892238B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94597F4E-FC60-4FA1-B7E2-C7C1A109AD66}"/>
+    <workbookView xWindow="3920" yWindow="500" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{94597F4E-FC60-4FA1-B7E2-C7C1A109AD66}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="140">
   <si>
     <t>Application Criticality Level &amp; RTO and RPO (Hours)</t>
   </si>
@@ -444,6 +444,21 @@
   <si>
     <t>(for budgetary purpose)</t>
   </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>Resource Group</t>
+  </si>
+  <si>
+    <t>Resource Name</t>
+  </si>
+  <si>
+    <t>Zones</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
 </sst>
 </file>
 
@@ -681,7 +696,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -693,16 +711,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1273,26 +1288,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7A5BA1-0B99-459E-B4A9-EF40CF8C63EA}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="7" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" customWidth="1"/>
-    <col min="13" max="13" width="30.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="19" width="6.85546875" customWidth="1"/>
-    <col min="20" max="20" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="7" width="7.1640625" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.83203125" customWidth="1"/>
+    <col min="12" max="12" width="30.1640625" customWidth="1"/>
+    <col min="13" max="13" width="30.1640625" hidden="1" customWidth="1"/>
+    <col min="14" max="19" width="6.83203125" customWidth="1"/>
+    <col min="20" max="20" width="50.5" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1321,7 @@
       <c r="M1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
         <v>3</v>
       </c>
@@ -1339,7 +1354,7 @@
       </c>
       <c r="U3" s="36"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
@@ -1399,7 +1414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1458,7 +1473,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1521,7 +1536,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1580,7 +1595,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -1643,7 +1658,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -1702,7 +1717,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -1765,7 +1780,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1803,7 +1818,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1845,7 +1860,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1883,7 +1898,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1921,7 +1936,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1959,7 +1974,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I16" s="4" t="s">
         <v>33</v>
       </c>
@@ -2001,7 +2016,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I17" s="4" t="s">
         <v>35</v>
       </c>
@@ -2039,7 +2054,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="18" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I18" s="4" t="s">
         <v>36</v>
       </c>
@@ -2081,7 +2096,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I19" s="4" t="s">
         <v>38</v>
       </c>
@@ -2119,7 +2134,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I20" s="4" t="s">
         <v>39</v>
       </c>
@@ -2157,7 +2172,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I21" s="4" t="s">
         <v>40</v>
       </c>
@@ -2199,7 +2214,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I22" s="4" t="s">
         <v>42</v>
       </c>
@@ -2237,7 +2252,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I23" s="4" t="s">
         <v>43</v>
       </c>
@@ -2275,7 +2290,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I24" s="4" t="s">
         <v>44</v>
       </c>
@@ -2317,7 +2332,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I25" s="4" t="s">
         <v>46</v>
       </c>
@@ -2355,7 +2370,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I26" s="4" t="s">
         <v>47</v>
       </c>
@@ -2395,7 +2410,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="27" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I27" s="4" t="s">
         <v>49</v>
       </c>
@@ -2433,7 +2448,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="28" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I28" s="4" t="s">
         <v>50</v>
       </c>
@@ -2475,7 +2490,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="29" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I29" s="4" t="s">
         <v>52</v>
       </c>
@@ -2513,7 +2528,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="30" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:22" x14ac:dyDescent="0.2">
       <c r="K30" s="4" t="s">
         <v>52</v>
       </c>
@@ -2552,7 +2567,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="31" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:22" x14ac:dyDescent="0.2">
       <c r="K31" s="4" t="s">
         <v>23</v>
       </c>
@@ -2589,7 +2604,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="32" spans="9:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:22" x14ac:dyDescent="0.2">
       <c r="K32" s="4" t="s">
         <v>23</v>
       </c>
@@ -2628,7 +2643,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="33" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K33" s="4" t="s">
         <v>47</v>
       </c>
@@ -2663,7 +2678,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="34" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K34" s="4" t="s">
         <v>47</v>
       </c>
@@ -2703,7 +2718,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="35" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:22" x14ac:dyDescent="0.2">
       <c r="J35" t="s">
         <v>57</v>
       </c>
@@ -2742,7 +2757,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="36" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K36" s="4" t="s">
         <v>44</v>
       </c>
@@ -2781,7 +2796,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="37" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K37" s="4" t="s">
         <v>43</v>
       </c>
@@ -2818,7 +2833,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="38" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K38" s="4" t="s">
         <v>43</v>
       </c>
@@ -2857,7 +2872,7 @@
         <v>0.99995000000000001</v>
       </c>
     </row>
-    <row r="39" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K39" s="4" t="s">
         <v>46</v>
       </c>
@@ -2892,7 +2907,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="40" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K40" s="4" t="s">
         <v>27</v>
       </c>
@@ -2927,7 +2942,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="41" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K41" s="4" t="s">
         <v>27</v>
       </c>
@@ -2966,7 +2981,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="42" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K42" s="4" t="s">
         <v>26</v>
       </c>
@@ -3001,7 +3016,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="43" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K43" s="4" t="s">
         <v>26</v>
       </c>
@@ -3040,7 +3055,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="44" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
@@ -3075,7 +3090,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="45" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K45" s="4" t="s">
         <v>29</v>
       </c>
@@ -3110,7 +3125,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="46" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K46" s="4" t="s">
         <v>49</v>
       </c>
@@ -3145,7 +3160,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="47" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -3159,7 +3174,7 @@
       <c r="U47" s="26"/>
       <c r="V47" s="31"/>
     </row>
-    <row r="48" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="10:22" x14ac:dyDescent="0.2">
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -3173,7 +3188,7 @@
       <c r="U48" s="26"/>
       <c r="V48" s="31"/>
     </row>
-    <row r="49" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -3187,7 +3202,7 @@
       <c r="U49" s="26"/>
       <c r="V49" s="31"/>
     </row>
-    <row r="51" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K51" t="s">
         <v>61</v>
       </c>
@@ -3214,12 +3229,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EBEAB1-8A62-4649-A6D8-C77036C87BBC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3238,24 +3276,24 @@
       <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="17" width="6.85546875" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="42.7109375" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="16.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="7.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="54.83203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="17" width="6.83203125" customWidth="1"/>
+    <col min="18" max="18" width="3.1640625" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="42.6640625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="16.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="7.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="14.33203125" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>114</v>
       </c>
@@ -3265,19 +3303,19 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B2" s="17"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>118</v>
       </c>
@@ -3285,56 +3323,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39" t="s">
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F7" s="40" t="s">
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F7" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="38" t="s">
+      <c r="G7" s="42"/>
+      <c r="H7" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="42" t="s">
+      <c r="I7" s="45"/>
+      <c r="J7" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="38" t="s">
+      <c r="K7" s="44"/>
+      <c r="L7" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="42" t="s">
+      <c r="M7" s="45"/>
+      <c r="N7" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="38" t="s">
+      <c r="O7" s="44"/>
+      <c r="P7" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="Q7" s="38"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q7" s="45"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -3387,7 +3425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>47</v>
       </c>
@@ -3454,7 +3492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>47</v>
       </c>
@@ -3521,7 +3559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>47</v>
       </c>
@@ -3588,7 +3626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>47</v>
       </c>
@@ -3655,7 +3693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>47</v>
       </c>
@@ -3722,7 +3760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>47</v>
       </c>
@@ -3789,7 +3827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>47</v>
       </c>
@@ -3856,7 +3894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>47</v>
       </c>
@@ -3923,7 +3961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>47</v>
       </c>
@@ -3990,7 +4028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>47</v>
       </c>
@@ -4057,7 +4095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>47</v>
       </c>
@@ -4124,7 +4162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>47</v>
       </c>
@@ -4191,7 +4229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>47</v>
       </c>
@@ -4258,7 +4296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>47</v>
       </c>
@@ -4325,7 +4363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>47</v>
       </c>
@@ -4392,7 +4430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>40</v>
       </c>
@@ -4460,7 +4498,7 @@
       </c>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -4527,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>40</v>
       </c>
@@ -4594,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>40</v>
       </c>
@@ -4661,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>40</v>
       </c>
@@ -4728,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>40</v>
       </c>
@@ -4795,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>40</v>
       </c>
@@ -4862,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>50</v>
       </c>
@@ -4929,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>50</v>
       </c>
@@ -4996,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>50</v>
       </c>
@@ -5063,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>50</v>
       </c>
@@ -5130,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>50</v>
       </c>
@@ -5197,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>52</v>
       </c>
@@ -5264,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>52</v>
       </c>
@@ -5331,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>52</v>
       </c>
@@ -5398,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>52</v>
       </c>
@@ -5465,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>52</v>
       </c>
@@ -5532,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>52</v>
       </c>
@@ -5599,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>52</v>
       </c>
@@ -5666,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>52</v>
       </c>
@@ -5733,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>52</v>
       </c>
@@ -5800,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>52</v>
       </c>
@@ -5867,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>52</v>
       </c>
@@ -5934,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>52</v>
       </c>
@@ -6001,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>52</v>
       </c>
@@ -6068,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>43</v>
       </c>
@@ -6135,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>15</v>
       </c>
@@ -6202,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>15</v>
       </c>
@@ -6269,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>15</v>
       </c>
@@ -6336,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>20</v>
       </c>
@@ -6403,7 +6441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>31</v>
       </c>
@@ -6470,7 +6508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -6531,7 +6569,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -6592,7 +6630,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -6653,7 +6691,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -6714,7 +6752,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -6775,7 +6813,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -6836,7 +6874,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -6897,7 +6935,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -6958,7 +6996,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -7019,7 +7057,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -7080,7 +7118,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -7141,7 +7179,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -7202,7 +7240,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -7263,7 +7301,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -7324,7 +7362,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -7385,7 +7423,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -7446,7 +7484,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -7507,7 +7545,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -7568,7 +7606,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -7629,7 +7667,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -7690,7 +7728,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -7751,7 +7789,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -7812,7 +7850,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -7873,7 +7911,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="C79" s="7" t="s">
         <v>122</v>
       </c>
@@ -7931,82 +7969,82 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F82" s="39" t="s">
+      <c r="F82" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39" t="s">
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="39" t="s">
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O82" s="39"/>
-      <c r="P82" s="39"/>
-      <c r="Q82" s="39"/>
-      <c r="S82" s="45" t="s">
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
+      <c r="S82" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T82" s="45"/>
-      <c r="U82" s="45"/>
-      <c r="V82" s="45"/>
-      <c r="W82" s="45"/>
-      <c r="X82" s="45"/>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F83" s="40" t="s">
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="39"/>
+      <c r="X82" s="39"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F83" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="G83" s="41"/>
+      <c r="G83" s="42"/>
       <c r="H83" s="43" t="s">
         <v>121</v>
       </c>
       <c r="I83" s="43"/>
-      <c r="J83" s="42" t="s">
+      <c r="J83" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="K83" s="42"/>
+      <c r="K83" s="44"/>
       <c r="L83" s="43" t="s">
         <v>121</v>
       </c>
       <c r="M83" s="43"/>
-      <c r="N83" s="42" t="s">
+      <c r="N83" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="O83" s="42"/>
+      <c r="O83" s="44"/>
       <c r="P83" s="43" t="s">
         <v>121</v>
       </c>
       <c r="Q83" s="43"/>
-      <c r="S83" s="44" t="s">
+      <c r="S83" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="T83" s="44" t="s">
+      <c r="T83" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="U83" s="44" t="s">
+      <c r="U83" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="V83" s="44" t="s">
+      <c r="V83" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="W83" s="44" t="s">
+      <c r="W83" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="X83" s="44" t="s">
+      <c r="X83" s="38" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
@@ -8058,14 +8096,14 @@
       <c r="Q84" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S84" s="44"/>
-      <c r="T84" s="44"/>
-      <c r="U84" s="44"/>
-      <c r="V84" s="44"/>
-      <c r="W84" s="44"/>
-      <c r="X84" s="44"/>
-    </row>
-    <row r="85" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="S84" s="38"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="38"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="38"/>
+      <c r="X84" s="38"/>
+    </row>
+    <row r="85" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="str">
         <f t="shared" ref="A85:B104" si="3">IF(A9="","",A9)</f>
         <v>Azure Storage</v>
@@ -8159,7 +8197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Storage</v>
@@ -8253,7 +8291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Storage</v>
@@ -8347,7 +8385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Storage</v>
@@ -8441,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Storage</v>
@@ -8535,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Storage</v>
@@ -8629,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Storage</v>
@@ -8723,7 +8761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Storage</v>
@@ -8817,7 +8855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Storage</v>
@@ -8911,7 +8949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Storage</v>
@@ -9005,7 +9043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Storage</v>
@@ -9099,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Storage</v>
@@ -9193,7 +9231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Storage</v>
@@ -9287,7 +9325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Storage</v>
@@ -9381,7 +9419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Storage</v>
@@ -9475,7 +9513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Public IPs</v>
@@ -9569,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Public IPs</v>
@@ -9663,7 +9701,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="102" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Public IPs</v>
@@ -9757,7 +9795,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="103" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Public IPs</v>
@@ -9851,7 +9889,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="104" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Azure Public IPs</v>
@@ -9945,7 +9983,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="105" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="str">
         <f t="shared" ref="A105:B124" si="11">IF(A29="","",A29)</f>
         <v>Azure Public IPs</v>
@@ -10039,7 +10077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Public IPs</v>
@@ -10133,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines</v>
@@ -10227,7 +10265,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="108" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines</v>
@@ -10321,7 +10359,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="109" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines</v>
@@ -10415,7 +10453,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="110" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines</v>
@@ -10509,7 +10547,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="111" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines</v>
@@ -10603,7 +10641,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="112" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines Scale Set</v>
@@ -10697,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines Scale Set</v>
@@ -10791,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines Scale Set</v>
@@ -10885,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines Scale Set</v>
@@ -10979,7 +11017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines Scale Set</v>
@@ -11073,7 +11111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines Scale Set</v>
@@ -11167,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines Scale Set</v>
@@ -11261,7 +11299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines Scale Set</v>
@@ -11355,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines Scale Set</v>
@@ -11449,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines Scale Set</v>
@@ -11543,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines Scale Set</v>
@@ -11637,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines Scale Set</v>
@@ -11731,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Azure Virtual Machines Scale Set</v>
@@ -11825,7 +11863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="str">
         <f t="shared" ref="A125:B144" si="17">IF(A49="","",A49)</f>
         <v>Azure SQL Database</v>
@@ -11919,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Azure App Gateway</v>
@@ -12013,7 +12051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Azure App Gateway</v>
@@ -12107,7 +12145,7 @@
         <v>341.64000000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Azure App Gateway</v>
@@ -12201,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Azure Cache for Redis</v>
@@ -12295,7 +12333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Azure Front Door Services</v>
@@ -12389,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -12483,7 +12521,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -12577,7 +12615,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -12671,7 +12709,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -12765,7 +12803,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -12859,7 +12897,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -12953,7 +12991,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -13047,7 +13085,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -13141,7 +13179,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -13235,7 +13273,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -13329,7 +13367,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -13423,7 +13461,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -13517,7 +13555,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -13611,7 +13649,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -13705,7 +13743,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="str">
         <f t="shared" ref="A145:B153" si="18">IF(A69="","",A69)</f>
         <v/>
@@ -13799,7 +13837,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -13893,7 +13931,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -13987,7 +14025,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -14081,7 +14119,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -14175,7 +14213,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -14269,7 +14307,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -14363,7 +14401,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -14457,7 +14495,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -14551,7 +14589,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="C155" s="7" t="s">
         <v>132</v>
       </c>
@@ -14616,20 +14654,22 @@
         <v>1326.66</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="W156" s="29" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="X83:X84"/>
-    <mergeCell ref="S82:X82"/>
-    <mergeCell ref="S83:S84"/>
-    <mergeCell ref="T83:T84"/>
-    <mergeCell ref="U83:U84"/>
-    <mergeCell ref="V83:V84"/>
-    <mergeCell ref="W83:W84"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="F82:I82"/>
     <mergeCell ref="J82:M82"/>
     <mergeCell ref="N82:Q82"/>
@@ -14639,15 +14679,13 @@
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
     <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="X83:X84"/>
+    <mergeCell ref="S82:X82"/>
+    <mergeCell ref="S83:S84"/>
+    <mergeCell ref="T83:T84"/>
+    <mergeCell ref="U83:U84"/>
+    <mergeCell ref="V83:V84"/>
+    <mergeCell ref="W83:W84"/>
   </mergeCells>
   <conditionalFormatting sqref="H79">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThanOrEqual">
@@ -14769,23 +14807,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="80b0474e-37b4-4751-81bc-12d5121181de">
-      <UserInfo>
-        <DisplayName>Smith Mangmeetakun</DisplayName>
-        <AccountId>72</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="670f2bc3-833b-4a76-b13f-f7d6db0b8f4d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15046,23 +15073,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="80b0474e-37b4-4751-81bc-12d5121181de">
+      <UserInfo>
+        <DisplayName>Smith Mangmeetakun</DisplayName>
+        <AccountId>72</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="670f2bc3-833b-4a76-b13f-f7d6db0b8f4d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{626FDD16-2397-4697-ACDD-4A4A15E67330}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B3A99D-AAD3-4558-A49E-D0B79DE8CAD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="80b0474e-37b4-4751-81bc-12d5121181de"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="670f2bc3-833b-4a76-b13f-f7d6db0b8f4d"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15089,9 +15122,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B3A99D-AAD3-4558-A49E-D0B79DE8CAD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{626FDD16-2397-4697-ACDD-4A4A15E67330}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="80b0474e-37b4-4751-81bc-12d5121181de"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="670f2bc3-833b-4a76-b13f-f7d6db0b8f4d"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/templates.xlsx
+++ b/templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smithm/GitHub/ARI-for-Reliability-Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2D8C0D-0B7D-7140-A085-EF892238B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86D768A-E66E-3646-8387-E47033A5EFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="500" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{94597F4E-FC60-4FA1-B7E2-C7C1A109AD66}"/>
+    <workbookView xWindow="3920" yWindow="500" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{94597F4E-FC60-4FA1-B7E2-C7C1A109AD66}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="135">
   <si>
     <t>Application Criticality Level &amp; RTO and RPO (Hours)</t>
   </si>
@@ -232,154 +232,16 @@
     <t>Zone</t>
   </si>
   <si>
-    <t>stmyaisazasseprd002</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>cs11003200150826510</t>
-  </si>
-  <si>
-    <t>cs110032002196a4abd</t>
-  </si>
-  <si>
-    <t>stmyaisadfazasseprd001</t>
   </si>
   <si>
     <t>1, 2, 3</t>
   </si>
   <si>
-    <t>stmyaisazasseprd001</t>
-  </si>
-  <si>
-    <t>stmyaisiacazasseprd001</t>
-  </si>
-  <si>
-    <t>fcd5e9f903b474c57a546fa</t>
-  </si>
-  <si>
-    <t>stmyaazaseaprd001</t>
-  </si>
-  <si>
-    <t>stmyaoamazaseaprd001</t>
-  </si>
-  <si>
-    <t>stmyapubazaseaprd001</t>
-  </si>
-  <si>
-    <t>stmyasqldefazaseaprd001</t>
-  </si>
-  <si>
-    <t>stmyaazasseprd001</t>
-  </si>
-  <si>
-    <t>stmyaoamazasseprd001</t>
-  </si>
-  <si>
-    <t>stmyapubazasseprd001</t>
-  </si>
-  <si>
-    <t>stmyaiacazusw3prd001</t>
-  </si>
-  <si>
-    <t>pip-myaisagw-az-asse-prd-001</t>
-  </si>
-  <si>
     <t>1 2 3</t>
   </si>
   <si>
-    <t>pip-myaisagw-az-asse-prd-002</t>
-  </si>
-  <si>
-    <t>vnet-myais-az-asse-prd-001-ip</t>
-  </si>
-  <si>
-    <t>vnetmyaisazasseprd001ip461</t>
-  </si>
-  <si>
-    <t>vnetmyaisazasseprd001ip634</t>
-  </si>
-  <si>
-    <t>pip-myaagw-az-asea-prd-001</t>
-  </si>
-  <si>
     <t>2 3 1</t>
-  </si>
-  <si>
-    <t>pip-myaagw-az-asse-prd-001</t>
-  </si>
-  <si>
-    <t>vm-myaisencryptserver-az-asse-prd-001</t>
-  </si>
-  <si>
-    <t>vm-myaisselfhostir-az-asse-prd-001</t>
-  </si>
-  <si>
-    <t>vm-myaselfhost-az-asea-prd-001</t>
-  </si>
-  <si>
-    <t>vm-myaselfhost-az-asse-prd-001</t>
-  </si>
-  <si>
-    <t>vm-myaisdevopsagent-az-asse-prd-001</t>
-  </si>
-  <si>
-    <t>aks-apppool1-36673642-vmss</t>
-  </si>
-  <si>
-    <t>aks-default-32136785-vmss</t>
-  </si>
-  <si>
-    <t>aks-monitorpool1-41068245-vmss</t>
-  </si>
-  <si>
-    <t>aks-myaisfe01-30917112-vmss</t>
-  </si>
-  <si>
-    <t>aks-myaisfe02-16204629-vmss</t>
-  </si>
-  <si>
-    <t>aks-prd001-30655189-vmss</t>
-  </si>
-  <si>
-    <t>aks-prd002-36811173-vmss</t>
-  </si>
-  <si>
-    <t>aks-monitor-91819415-vmss</t>
-  </si>
-  <si>
-    <t>aks-prd002-41878453-vmss</t>
-  </si>
-  <si>
-    <t>aks-default-12962193-vmss</t>
-  </si>
-  <si>
-    <t>aks-monitor-17376731-vmss</t>
-  </si>
-  <si>
-    <t>aks-default-42783614-vmss</t>
-  </si>
-  <si>
-    <t>aks-prd001-55959098-vmss</t>
-  </si>
-  <si>
-    <t>neserv</t>
-  </si>
-  <si>
-    <t>agw-myais-az-asse-prd-001</t>
-  </si>
-  <si>
-    <t>agw-myais-az-asse-prd-002</t>
-  </si>
-  <si>
-    <t>agw-mya-az-asse-prd-001</t>
-  </si>
-  <si>
-    <t>redis-myais-az-asse-prd-001</t>
-  </si>
-  <si>
-    <t>fdmyaisazasseprd001</t>
   </si>
   <si>
     <t>Application Name</t>
@@ -458,6 +320,129 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Galaxy</t>
+  </si>
+  <si>
+    <t>Lavender</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+  </si>
+  <si>
+    <t>Blossom</t>
+  </si>
+  <si>
+    <t>Mystic</t>
+  </si>
+  <si>
+    <t>Sapphire</t>
+  </si>
+  <si>
+    <t>Twilight</t>
+  </si>
+  <si>
+    <t>Dazzle</t>
+  </si>
+  <si>
+    <t>Harmony</t>
+  </si>
+  <si>
+    <t>Oceanic</t>
+  </si>
+  <si>
+    <t>Majestic</t>
+  </si>
+  <si>
+    <t>Enchanted</t>
+  </si>
+  <si>
+    <t>Horizon</t>
+  </si>
+  <si>
+    <t>Radiant</t>
+  </si>
+  <si>
+    <t>Celestial</t>
+  </si>
+  <si>
+    <t>Paradise</t>
+  </si>
+  <si>
+    <t>Serenity</t>
+  </si>
+  <si>
+    <t>Euphoria</t>
+  </si>
+  <si>
+    <t>Serenade</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Cascade</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>Mirage</t>
+  </si>
+  <si>
+    <t>Meadow</t>
+  </si>
+  <si>
+    <t>Jubilee</t>
+  </si>
+  <si>
+    <t>Symphony</t>
+  </si>
+  <si>
+    <t>Radiance</t>
+  </si>
+  <si>
+    <t>Glimmer</t>
+  </si>
+  <si>
+    <t>Rainforest</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>Sunrise</t>
+  </si>
+  <si>
+    <t>Majesty</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Wonder</t>
+  </si>
+  <si>
+    <t>Dreamer</t>
+  </si>
+  <si>
+    <t>Skyline</t>
+  </si>
+  <si>
+    <t>Blissful</t>
+  </si>
+  <si>
+    <t>Stardust</t>
+  </si>
+  <si>
+    <t>Whisper</t>
+  </si>
+  <si>
+    <t>Amethyst</t>
+  </si>
+  <si>
+    <t>Halo</t>
   </si>
 </sst>
 </file>
@@ -696,10 +681,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -711,13 +693,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3231,7 +3216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EBEAB1-8A62-4649-A6D8-C77036C87BBC}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3239,22 +3224,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3269,11 +3254,11 @@
   </sheetPr>
   <dimension ref="A1:X156"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3295,29 +3280,29 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B1" s="17"/>
       <c r="H1" s="19"/>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="B4" s="17">
         <v>2</v>
@@ -3325,52 +3310,52 @@
     </row>
     <row r="6" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40" t="s">
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F7" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q7" s="45"/>
+      <c r="F7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="42"/>
+      <c r="P7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -3430,10 +3415,10 @@
         <v>47</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="D9" s="4" t="str">
         <f>IF(A9="","",_xlfn.CONCAT(A9,"-",IF(C9="Zone Redundant",C9,IF(C9="","Zonal - Single Zone Deployment","Zonal - Multi-AZ Deployment"))))</f>
@@ -3497,10 +3482,10 @@
         <v>47</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" ref="D10:D77" si="0">IF(A10="","",_xlfn.CONCAT(A10,"-",IF(C10="Zone Redundant",C10,IF(C10="","Zonal - Single Zone Deployment","Zonal - Multi-AZ Deployment"))))</f>
@@ -3564,10 +3549,10 @@
         <v>47</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3631,10 +3616,10 @@
         <v>47</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3698,10 +3683,10 @@
         <v>47</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3765,10 +3750,10 @@
         <v>47</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3832,10 +3817,10 @@
         <v>47</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3899,10 +3884,10 @@
         <v>47</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3966,10 +3951,10 @@
         <v>47</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" ref="D17:D46" si="1">IF(A17="","",_xlfn.CONCAT(A17,"-",IF(C17="Zone Redundant",C17,IF(C17="","Zonal - Single Zone Deployment","Zonal - Multi-AZ Deployment"))))</f>
@@ -4033,10 +4018,10 @@
         <v>47</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4100,10 +4085,10 @@
         <v>47</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4167,10 +4152,10 @@
         <v>47</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4234,10 +4219,10 @@
         <v>47</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4301,10 +4286,10 @@
         <v>47</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4368,10 +4353,10 @@
         <v>47</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4435,10 +4420,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4503,10 +4488,10 @@
         <v>40</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4570,10 +4555,10 @@
         <v>40</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4637,10 +4622,10 @@
         <v>40</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4704,10 +4689,10 @@
         <v>40</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4771,10 +4756,10 @@
         <v>40</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D29" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4838,10 +4823,10 @@
         <v>40</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4905,10 +4890,10 @@
         <v>50</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4972,10 +4957,10 @@
         <v>50</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5039,10 +5024,10 @@
         <v>50</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5106,10 +5091,10 @@
         <v>50</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5173,10 +5158,10 @@
         <v>50</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5240,10 +5225,10 @@
         <v>52</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D36" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5310,7 +5295,7 @@
         <v>96</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D37" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5374,10 +5359,10 @@
         <v>52</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D38" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5441,10 +5426,10 @@
         <v>52</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D39" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5508,10 +5493,10 @@
         <v>52</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D40" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5575,10 +5560,10 @@
         <v>52</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D41" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5642,10 +5627,10 @@
         <v>52</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D42" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5709,10 +5694,10 @@
         <v>52</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D43" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5776,10 +5761,10 @@
         <v>52</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D44" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5843,10 +5828,10 @@
         <v>52</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D45" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5910,10 +5895,10 @@
         <v>52</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D46" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5977,10 +5962,10 @@
         <v>52</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D47" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6044,10 +6029,10 @@
         <v>52</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D48" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6111,10 +6096,10 @@
         <v>43</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D49" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6178,10 +6163,10 @@
         <v>15</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D50" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6245,10 +6230,10 @@
         <v>15</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6312,10 +6297,10 @@
         <v>15</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D52" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6379,10 +6364,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D53" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6446,7 +6431,7 @@
         <v>31</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>32</v>
@@ -7913,7 +7898,7 @@
     </row>
     <row r="79" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="C79" s="7" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="35">
@@ -7971,77 +7956,77 @@
     </row>
     <row r="82" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F82" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F82" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40" t="s">
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
-      <c r="N82" s="40" t="s">
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="40"/>
-      <c r="S82" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="T82" s="39"/>
-      <c r="U82" s="39"/>
-      <c r="V82" s="39"/>
-      <c r="W82" s="39"/>
-      <c r="X82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="S82" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="T82" s="45"/>
+      <c r="U82" s="45"/>
+      <c r="V82" s="45"/>
+      <c r="W82" s="45"/>
+      <c r="X82" s="45"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="F83" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="G83" s="42"/>
+      <c r="F83" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G83" s="41"/>
       <c r="H83" s="43" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="I83" s="43"/>
-      <c r="J83" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="K83" s="44"/>
+      <c r="J83" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K83" s="42"/>
       <c r="L83" s="43" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="M83" s="43"/>
-      <c r="N83" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="O83" s="44"/>
+      <c r="N83" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="O83" s="42"/>
       <c r="P83" s="43" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="Q83" s="43"/>
-      <c r="S83" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="T83" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="U83" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="V83" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="W83" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="X83" s="38" t="s">
-        <v>130</v>
+      <c r="S83" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="T83" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="U83" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="V83" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="W83" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="X83" s="44" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
@@ -8052,7 +8037,7 @@
         <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>12</v>
@@ -8096,12 +8081,12 @@
       <c r="Q84" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S84" s="38"/>
-      <c r="T84" s="38"/>
-      <c r="U84" s="38"/>
-      <c r="V84" s="38"/>
-      <c r="W84" s="38"/>
-      <c r="X84" s="38"/>
+      <c r="S84" s="44"/>
+      <c r="T84" s="44"/>
+      <c r="U84" s="44"/>
+      <c r="V84" s="44"/>
+      <c r="W84" s="44"/>
+      <c r="X84" s="44"/>
     </row>
     <row r="85" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="str">
@@ -8110,7 +8095,7 @@
       </c>
       <c r="B85" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>stmyaisazasseprd002</v>
+        <v>Galaxy</v>
       </c>
       <c r="C85" s="4" t="str">
         <f t="shared" ref="C85:C116" si="4">IF(A9="","",IF(C9="Zone Redundant",C9,"Multi-AZ"))</f>
@@ -8204,7 +8189,7 @@
       </c>
       <c r="B86" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>cs11003200150826510</v>
+        <v>Lavender</v>
       </c>
       <c r="C86" s="4" t="str">
         <f t="shared" si="4"/>
@@ -8298,7 +8283,7 @@
       </c>
       <c r="B87" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>cs110032002196a4abd</v>
+        <v>Sunshine</v>
       </c>
       <c r="C87" s="4" t="str">
         <f t="shared" si="4"/>
@@ -8392,7 +8377,7 @@
       </c>
       <c r="B88" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>stmyaisadfazasseprd001</v>
+        <v>Blossom</v>
       </c>
       <c r="C88" s="4" t="str">
         <f t="shared" si="4"/>
@@ -8486,7 +8471,7 @@
       </c>
       <c r="B89" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>stmyaisazasseprd001</v>
+        <v>Mystic</v>
       </c>
       <c r="C89" s="4" t="str">
         <f t="shared" si="4"/>
@@ -8580,7 +8565,7 @@
       </c>
       <c r="B90" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>stmyaisiacazasseprd001</v>
+        <v>Sapphire</v>
       </c>
       <c r="C90" s="4" t="str">
         <f t="shared" si="4"/>
@@ -8674,7 +8659,7 @@
       </c>
       <c r="B91" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>fcd5e9f903b474c57a546fa</v>
+        <v>Twilight</v>
       </c>
       <c r="C91" s="4" t="str">
         <f t="shared" si="4"/>
@@ -8768,7 +8753,7 @@
       </c>
       <c r="B92" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>stmyaazaseaprd001</v>
+        <v>Dazzle</v>
       </c>
       <c r="C92" s="4" t="str">
         <f t="shared" si="4"/>
@@ -8862,7 +8847,7 @@
       </c>
       <c r="B93" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>stmyaoamazaseaprd001</v>
+        <v>Harmony</v>
       </c>
       <c r="C93" s="4" t="str">
         <f t="shared" si="4"/>
@@ -8956,7 +8941,7 @@
       </c>
       <c r="B94" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>stmyapubazaseaprd001</v>
+        <v>Oceanic</v>
       </c>
       <c r="C94" s="4" t="str">
         <f t="shared" si="4"/>
@@ -9050,7 +9035,7 @@
       </c>
       <c r="B95" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>stmyasqldefazaseaprd001</v>
+        <v>Majestic</v>
       </c>
       <c r="C95" s="4" t="str">
         <f t="shared" si="4"/>
@@ -9144,7 +9129,7 @@
       </c>
       <c r="B96" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>stmyaazasseprd001</v>
+        <v>Enchanted</v>
       </c>
       <c r="C96" s="4" t="str">
         <f t="shared" si="4"/>
@@ -9238,7 +9223,7 @@
       </c>
       <c r="B97" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>stmyaoamazasseprd001</v>
+        <v>Horizon</v>
       </c>
       <c r="C97" s="4" t="str">
         <f t="shared" si="4"/>
@@ -9332,7 +9317,7 @@
       </c>
       <c r="B98" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>stmyapubazasseprd001</v>
+        <v>Radiant</v>
       </c>
       <c r="C98" s="4" t="str">
         <f t="shared" si="4"/>
@@ -9426,7 +9411,7 @@
       </c>
       <c r="B99" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>stmyaiacazusw3prd001</v>
+        <v>Celestial</v>
       </c>
       <c r="C99" s="4" t="str">
         <f t="shared" si="4"/>
@@ -9520,7 +9505,7 @@
       </c>
       <c r="B100" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>pip-myaisagw-az-asse-prd-001</v>
+        <v>Paradise</v>
       </c>
       <c r="C100" s="4" t="str">
         <f t="shared" si="4"/>
@@ -9614,7 +9599,7 @@
       </c>
       <c r="B101" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>pip-myaisagw-az-asse-prd-002</v>
+        <v>Serenity</v>
       </c>
       <c r="C101" s="4" t="str">
         <f t="shared" si="4"/>
@@ -9708,7 +9693,7 @@
       </c>
       <c r="B102" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>vnet-myais-az-asse-prd-001-ip</v>
+        <v>Euphoria</v>
       </c>
       <c r="C102" s="4" t="str">
         <f t="shared" si="4"/>
@@ -9802,7 +9787,7 @@
       </c>
       <c r="B103" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>vnetmyaisazasseprd001ip461</v>
+        <v>Serenade</v>
       </c>
       <c r="C103" s="4" t="str">
         <f t="shared" si="4"/>
@@ -9896,7 +9881,7 @@
       </c>
       <c r="B104" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>vnetmyaisazasseprd001ip634</v>
+        <v>Aurora</v>
       </c>
       <c r="C104" s="4" t="str">
         <f t="shared" si="4"/>
@@ -9990,7 +9975,7 @@
       </c>
       <c r="B105" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>pip-myaagw-az-asea-prd-001</v>
+        <v>Cascade</v>
       </c>
       <c r="C105" s="4" t="str">
         <f t="shared" si="4"/>
@@ -10084,7 +10069,7 @@
       </c>
       <c r="B106" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>pip-myaagw-az-asse-prd-001</v>
+        <v>Oasis</v>
       </c>
       <c r="C106" s="4" t="str">
         <f t="shared" si="4"/>
@@ -10178,7 +10163,7 @@
       </c>
       <c r="B107" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>vm-myaisencryptserver-az-asse-prd-001</v>
+        <v>Mirage</v>
       </c>
       <c r="C107" s="4" t="str">
         <f t="shared" si="4"/>
@@ -10272,7 +10257,7 @@
       </c>
       <c r="B108" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>vm-myaisselfhostir-az-asse-prd-001</v>
+        <v>Meadow</v>
       </c>
       <c r="C108" s="4" t="str">
         <f t="shared" si="4"/>
@@ -10366,7 +10351,7 @@
       </c>
       <c r="B109" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>vm-myaselfhost-az-asea-prd-001</v>
+        <v>Jubilee</v>
       </c>
       <c r="C109" s="4" t="str">
         <f t="shared" si="4"/>
@@ -10460,7 +10445,7 @@
       </c>
       <c r="B110" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>vm-myaselfhost-az-asse-prd-001</v>
+        <v>Symphony</v>
       </c>
       <c r="C110" s="4" t="str">
         <f t="shared" si="4"/>
@@ -10554,7 +10539,7 @@
       </c>
       <c r="B111" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>vm-myaisdevopsagent-az-asse-prd-001</v>
+        <v>Radiance</v>
       </c>
       <c r="C111" s="4" t="str">
         <f t="shared" si="4"/>
@@ -10648,7 +10633,7 @@
       </c>
       <c r="B112" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>aks-apppool1-36673642-vmss</v>
+        <v>Oasis</v>
       </c>
       <c r="C112" s="4" t="str">
         <f t="shared" si="4"/>
@@ -10742,7 +10727,7 @@
       </c>
       <c r="B113" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>aks-default-32136785-vmss</v>
+        <v>Sunshine</v>
       </c>
       <c r="C113" s="4" t="str">
         <f t="shared" si="4"/>
@@ -10836,7 +10821,7 @@
       </c>
       <c r="B114" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>aks-monitorpool1-41068245-vmss</v>
+        <v>Glimmer</v>
       </c>
       <c r="C114" s="4" t="str">
         <f t="shared" si="4"/>
@@ -10930,7 +10915,7 @@
       </c>
       <c r="B115" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>aks-myaisfe01-30917112-vmss</v>
+        <v>Rainforest</v>
       </c>
       <c r="C115" s="4" t="str">
         <f t="shared" si="4"/>
@@ -11024,7 +11009,7 @@
       </c>
       <c r="B116" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>aks-myaisfe02-16204629-vmss</v>
+        <v>Infinity</v>
       </c>
       <c r="C116" s="4" t="str">
         <f t="shared" si="4"/>
@@ -11118,7 +11103,7 @@
       </c>
       <c r="B117" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>aks-prd001-30655189-vmss</v>
+        <v>Sunrise</v>
       </c>
       <c r="C117" s="4" t="str">
         <f t="shared" ref="C117:C148" si="12">IF(A41="","",IF(C41="Zone Redundant",C41,"Multi-AZ"))</f>
@@ -11212,7 +11197,7 @@
       </c>
       <c r="B118" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>aks-prd002-36811173-vmss</v>
+        <v>Majesty</v>
       </c>
       <c r="C118" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11306,7 +11291,7 @@
       </c>
       <c r="B119" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>aks-monitor-91819415-vmss</v>
+        <v>Crystal</v>
       </c>
       <c r="C119" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11400,7 +11385,7 @@
       </c>
       <c r="B120" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>aks-prd002-41878453-vmss</v>
+        <v>Wonder</v>
       </c>
       <c r="C120" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11494,7 +11479,7 @@
       </c>
       <c r="B121" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>aks-default-12962193-vmss</v>
+        <v>Dreamer</v>
       </c>
       <c r="C121" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11588,7 +11573,7 @@
       </c>
       <c r="B122" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>aks-monitor-17376731-vmss</v>
+        <v>Skyline</v>
       </c>
       <c r="C122" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11682,7 +11667,7 @@
       </c>
       <c r="B123" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>aks-default-42783614-vmss</v>
+        <v>Serenade</v>
       </c>
       <c r="C123" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11776,7 +11761,7 @@
       </c>
       <c r="B124" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>aks-prd001-55959098-vmss</v>
+        <v>Blissful</v>
       </c>
       <c r="C124" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11870,7 +11855,7 @@
       </c>
       <c r="B125" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>neserv</v>
+        <v>Stardust</v>
       </c>
       <c r="C125" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11964,7 +11949,7 @@
       </c>
       <c r="B126" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>agw-myais-az-asse-prd-001</v>
+        <v>Whisper</v>
       </c>
       <c r="C126" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12058,7 +12043,7 @@
       </c>
       <c r="B127" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>agw-myais-az-asse-prd-002</v>
+        <v>Amethyst</v>
       </c>
       <c r="C127" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12152,7 +12137,7 @@
       </c>
       <c r="B128" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>agw-mya-az-asse-prd-001</v>
+        <v>Halo</v>
       </c>
       <c r="C128" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12246,7 +12231,7 @@
       </c>
       <c r="B129" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>redis-myais-az-asse-prd-001</v>
+        <v>Mystic</v>
       </c>
       <c r="C129" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12340,7 +12325,7 @@
       </c>
       <c r="B130" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>fdmyaisazasseprd001</v>
+        <v>Blossom</v>
       </c>
       <c r="C130" s="4" t="str">
         <f t="shared" si="12"/>
@@ -14591,7 +14576,7 @@
     </row>
     <row r="155" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="C155" s="7" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="35">
@@ -14647,7 +14632,7 @@
         <v>24</v>
       </c>
       <c r="W155" s="7" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="X155" s="28">
         <f>SUM(X85:X153)</f>
@@ -14656,11 +14641,27 @@
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="W156" s="29" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="X83:X84"/>
+    <mergeCell ref="S82:X82"/>
+    <mergeCell ref="S83:S84"/>
+    <mergeCell ref="T83:T84"/>
+    <mergeCell ref="U83:U84"/>
+    <mergeCell ref="V83:V84"/>
+    <mergeCell ref="W83:W84"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="F6:I6"/>
@@ -14670,22 +14671,6 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="X83:X84"/>
-    <mergeCell ref="S82:X82"/>
-    <mergeCell ref="S83:S84"/>
-    <mergeCell ref="T83:T84"/>
-    <mergeCell ref="U83:U84"/>
-    <mergeCell ref="V83:V84"/>
-    <mergeCell ref="W83:W84"/>
   </mergeCells>
   <conditionalFormatting sqref="H79">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThanOrEqual">
@@ -14816,6 +14801,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="80b0474e-37b4-4751-81bc-12d5121181de">
+      <UserInfo>
+        <DisplayName>Smith Mangmeetakun</DisplayName>
+        <AccountId>72</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="670f2bc3-833b-4a76-b13f-f7d6db0b8f4d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F523F0DE61C01647AADD57BC023588A4" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee28fff2fb8673b821d9cefaa23fecad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="670f2bc3-833b-4a76-b13f-f7d6db0b8f4d" xmlns:ns3="230e9df3-be65-4c73-a93b-d1236ebd677e" xmlns:ns4="80b0474e-37b4-4751-81bc-12d5121181de" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="89cbad1f211539c7601732b6d3a7f38a" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15072,26 +15077,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="80b0474e-37b4-4751-81bc-12d5121181de">
-      <UserInfo>
-        <DisplayName>Smith Mangmeetakun</DisplayName>
-        <AccountId>72</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="670f2bc3-833b-4a76-b13f-f7d6db0b8f4d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B3A99D-AAD3-4558-A49E-D0B79DE8CAD4}">
   <ds:schemaRefs>
@@ -15101,6 +15086,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{626FDD16-2397-4697-ACDD-4A4A15E67330}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="80b0474e-37b4-4751-81bc-12d5121181de"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="670f2bc3-833b-4a76-b13f-f7d6db0b8f4d"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFD77F6C-2665-4616-8E0C-961858CD74CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15121,19 +15119,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{626FDD16-2397-4697-ACDD-4A4A15E67330}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="80b0474e-37b4-4751-81bc-12d5121181de"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="670f2bc3-833b-4a76-b13f-f7d6db0b8f4d"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
